--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_14_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_14_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3839106.635275289</v>
+        <v>3834802.295465422</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C2" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>263.7138800015061</v>
@@ -673,10 +673,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>12.83417464571001</v>
+        <v>237.9688518868387</v>
       </c>
       <c r="H2" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -712,13 +712,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
-        <v>0.2792495146818396</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -743,22 +743,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>3.636373462449423</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120976</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>43.9218040015056</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,28 +785,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S3" t="n">
         <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>40.40952015575248</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -816,22 +816,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>54.36310220592415</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -870,22 +870,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>155.1123598187862</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>225.1346772411287</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -913,10 +913,10 @@
         <v>12.83417464571001</v>
       </c>
       <c r="H5" t="n">
-        <v>148.686509969291</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,19 +949,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="W5" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="X5" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -983,19 +983,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>136.0227195864234</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>99.47932027120976</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>43.9218040015056</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,16 +1022,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S6" t="n">
-        <v>31.45574594432992</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1040,10 +1040,10 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>10.18456372565635</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1053,19 +1053,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>82.05680507213263</v>
       </c>
       <c r="G7" t="n">
         <v>166.8836670385466</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1104,25 +1104,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>2.272639775475878</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1138,19 +1138,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>11.5491597882495</v>
+        <v>411.5491597882495</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>57.72722229232789</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1183,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>104.1470820312182</v>
+        <v>123.4854171348408</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6645630646898</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0453666896857</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1229,10 +1229,10 @@
         <v>135.3351760237737</v>
       </c>
       <c r="H9" t="n">
-        <v>92.83909691614508</v>
+        <v>91.06264775160911</v>
       </c>
       <c r="I9" t="n">
-        <v>20.24979976115242</v>
+        <v>20.24979976115247</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1262,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>134.3791152901738</v>
+        <v>134.3791152901739</v>
       </c>
       <c r="T9" t="n">
         <v>192.0697045406877</v>
@@ -1280,7 +1280,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>203.9062466127712</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -1296,13 +1296,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1341,25 +1341,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6738502503845</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7514885103388</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271897703044</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>2.416315497670765</v>
+        <v>195.7667673447303</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1369,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.154082144413</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695523</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="12">
@@ -1530,19 +1530,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>18.70843787977262</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1590,7 +1590,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>15.09910835322229</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1606,16 +1606,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206824</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695521</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881285</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="15">
@@ -1767,16 +1767,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>112.7304175246782</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1830,10 +1830,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1846,7 +1846,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2004,13 +2004,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812011</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0.2811815126418742</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2058,7 +2058,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2080,16 +2080,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.154082144413</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,16 +2131,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695521</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881284</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2149,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="21">
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2247,10 +2247,10 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>41.566931371088</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>108.9065924712588</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2368,16 +2368,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695521</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881285</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2386,7 +2386,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="24">
@@ -2481,19 +2481,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2535,10 +2535,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>181.2557668969882</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2554,25 +2554,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.6830416206828</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187865</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695521</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881284</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W26" t="n">
-        <v>349.2409687174129</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.7311006784689</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2718,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>19.91555826189057</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>255.4454628329759</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2791,10 +2791,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2803,13 +2803,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187865</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695521</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701331</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.2409687174129</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.7311006784689</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2958,7 +2958,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2967,7 +2967,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3012,7 +3012,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>223.1546446143035</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3031,22 +3031,22 @@
         <v>382.7338416634805</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D32" t="n">
-        <v>354.6830416206828</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722617</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187865</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,22 +3079,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695517</v>
+        <v>83.70251495695521</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576159</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881285</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.2409687174129</v>
+        <v>349.2409687174132</v>
       </c>
       <c r="X32" t="n">
-        <v>369.7311006784689</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560535</v>
@@ -3186,25 +3186,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819372</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986277</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182122</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.433962646569</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>99.76859704213967</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462237</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012154</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016445</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272881</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>252.1376433238279</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520946</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3277,13 +3277,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,22 +3316,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695537</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V35" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3426,25 +3426,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>32.27552175740432</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3505,7 +3505,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3663,25 +3663,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>20.89983420622057</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3717,7 +3717,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3796,7 +3796,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3900,7 +3900,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -3912,10 +3912,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -3948,10 +3948,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3960,10 +3960,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>15.09910835322229</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>210.7001060820189</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3982,7 +3982,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -4033,7 +4033,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4140,22 +4140,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4188,7 +4188,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>71.39698738222857</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4197,7 +4197,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>840.1393936243022</v>
+        <v>534.7928453799753</v>
       </c>
       <c r="C2" t="n">
-        <v>573.7617370571243</v>
+        <v>534.7928453799753</v>
       </c>
       <c r="D2" t="n">
-        <v>307.3840804899463</v>
+        <v>268.4151888127974</v>
       </c>
       <c r="E2" t="n">
-        <v>307.3840804899463</v>
+        <v>268.4151888127974</v>
       </c>
       <c r="F2" t="n">
-        <v>300.4385797407429</v>
+        <v>261.4696880635939</v>
       </c>
       <c r="G2" t="n">
-        <v>287.4747669672984</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H2" t="n">
         <v>21.09711040012049</v>
@@ -4330,13 +4330,13 @@
         <v>21.09711040012049</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917579</v>
+        <v>49.28269087917582</v>
       </c>
       <c r="K2" t="n">
-        <v>142.264087905254</v>
+        <v>142.2640879052541</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515905</v>
+        <v>294.5174947515904</v>
       </c>
       <c r="M2" t="n">
         <v>495.5981834030603</v>
@@ -4360,22 +4360,22 @@
         <v>1054.855520006025</v>
       </c>
       <c r="T2" t="n">
-        <v>840.4214638411526</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U2" t="n">
-        <v>840.4214638411526</v>
+        <v>801.1705019471533</v>
       </c>
       <c r="V2" t="n">
-        <v>840.1393936243022</v>
+        <v>801.1705019471533</v>
       </c>
       <c r="W2" t="n">
-        <v>840.1393936243022</v>
+        <v>801.1705019471533</v>
       </c>
       <c r="X2" t="n">
-        <v>840.1393936243022</v>
+        <v>801.1705019471533</v>
       </c>
       <c r="Y2" t="n">
-        <v>840.1393936243022</v>
+        <v>801.1705019471533</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>490.6074226393775</v>
+        <v>650.2565623210693</v>
       </c>
       <c r="C3" t="n">
-        <v>316.1543933582504</v>
+        <v>475.8035330399423</v>
       </c>
       <c r="D3" t="n">
-        <v>316.1543933582504</v>
+        <v>326.869123378691</v>
       </c>
       <c r="E3" t="n">
-        <v>316.1543933582504</v>
+        <v>167.6316683732355</v>
       </c>
       <c r="F3" t="n">
-        <v>169.6198353851354</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G3" t="n">
-        <v>165.9467308776107</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H3" t="n">
-        <v>65.46256898749988</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I3" t="n">
         <v>21.09711040012049</v>
       </c>
       <c r="J3" t="n">
-        <v>21.09711040012049</v>
+        <v>117.4455628004801</v>
       </c>
       <c r="K3" t="n">
-        <v>95.78113116957465</v>
+        <v>192.1295835699343</v>
       </c>
       <c r="L3" t="n">
-        <v>242.5255548298713</v>
+        <v>338.874007230231</v>
       </c>
       <c r="M3" t="n">
-        <v>433.1262439263951</v>
+        <v>529.4746963267547</v>
       </c>
       <c r="N3" t="n">
-        <v>643.1802110290001</v>
+        <v>739.5286634293598</v>
       </c>
       <c r="O3" t="n">
-        <v>813.1187583557299</v>
+        <v>909.4672107560896</v>
       </c>
       <c r="P3" t="n">
-        <v>930.1763583891335</v>
+        <v>1026.524810789493</v>
       </c>
       <c r="Q3" t="n">
         <v>1054.855520006025</v>
       </c>
       <c r="R3" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="S3" t="n">
-        <v>906.2192216098642</v>
+        <v>887.8833378166544</v>
       </c>
       <c r="T3" t="n">
-        <v>906.2192216098642</v>
+        <v>691.074259448092</v>
       </c>
       <c r="U3" t="n">
-        <v>906.2192216098642</v>
+        <v>691.074259448092</v>
       </c>
       <c r="V3" t="n">
-        <v>906.2192216098642</v>
+        <v>650.2565623210693</v>
       </c>
       <c r="W3" t="n">
-        <v>906.2192216098642</v>
+        <v>650.2565623210693</v>
       </c>
       <c r="X3" t="n">
-        <v>698.3677214043314</v>
+        <v>650.2565623210693</v>
       </c>
       <c r="Y3" t="n">
-        <v>490.6074226393775</v>
+        <v>650.2565623210693</v>
       </c>
     </row>
     <row r="4">
@@ -4464,37 +4464,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>190.0332933280274</v>
+        <v>386.0368194650767</v>
       </c>
       <c r="C4" t="n">
-        <v>21.09711040012049</v>
+        <v>386.0368194650767</v>
       </c>
       <c r="D4" t="n">
-        <v>21.09711040012049</v>
+        <v>386.0368194650767</v>
       </c>
       <c r="E4" t="n">
-        <v>21.09711040012049</v>
+        <v>238.1237258826836</v>
       </c>
       <c r="F4" t="n">
-        <v>21.09711040012049</v>
+        <v>91.23377838477327</v>
       </c>
       <c r="G4" t="n">
-        <v>21.09711040012049</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="H4" t="n">
-        <v>21.09711040012049</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="I4" t="n">
-        <v>21.09711040012049</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="J4" t="n">
         <v>21.09711040012049</v>
       </c>
       <c r="K4" t="n">
-        <v>126.4133765287947</v>
+        <v>126.4133765287946</v>
       </c>
       <c r="L4" t="n">
-        <v>316.7083726551009</v>
+        <v>316.7083726551008</v>
       </c>
       <c r="M4" t="n">
         <v>527.7368878375335</v>
@@ -4518,22 +4518,22 @@
         <v>1054.855520006025</v>
       </c>
       <c r="T4" t="n">
-        <v>829.3864837640389</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U4" t="n">
-        <v>829.3864837640389</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V4" t="n">
-        <v>574.701995558152</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W4" t="n">
-        <v>574.701995558152</v>
+        <v>788.4778634388466</v>
       </c>
       <c r="X4" t="n">
-        <v>346.7124446601347</v>
+        <v>788.4778634388466</v>
       </c>
       <c r="Y4" t="n">
-        <v>190.0332933280274</v>
+        <v>567.6852842953165</v>
       </c>
     </row>
     <row r="5">
@@ -4543,31 +4543,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>307.6661507067968</v>
+        <v>268.4151888127974</v>
       </c>
       <c r="C5" t="n">
-        <v>307.6661507067968</v>
+        <v>41.00642392276842</v>
       </c>
       <c r="D5" t="n">
-        <v>307.6661507067968</v>
+        <v>41.00642392276842</v>
       </c>
       <c r="E5" t="n">
-        <v>307.6661507067968</v>
+        <v>41.00642392276842</v>
       </c>
       <c r="F5" t="n">
-        <v>300.7206499575934</v>
+        <v>34.06092317356495</v>
       </c>
       <c r="G5" t="n">
-        <v>287.7568371841489</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H5" t="n">
-        <v>137.5684432757741</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I5" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J5" t="n">
-        <v>49.28269087917624</v>
+        <v>49.28269087917579</v>
       </c>
       <c r="K5" t="n">
         <v>142.2640879052547</v>
@@ -4576,13 +4576,13 @@
         <v>294.5174947515909</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030608</v>
+        <v>495.5981834030606</v>
       </c>
       <c r="N5" t="n">
-        <v>704.5463761991321</v>
+        <v>704.5463761991318</v>
       </c>
       <c r="O5" t="n">
-        <v>888.5149683358418</v>
+        <v>888.5149683358416</v>
       </c>
       <c r="P5" t="n">
         <v>1011.026904601763</v>
@@ -4597,22 +4597,22 @@
         <v>1054.855520006025</v>
       </c>
       <c r="T5" t="n">
-        <v>840.4214638411528</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U5" t="n">
-        <v>840.4214638411528</v>
+        <v>801.1705019471533</v>
       </c>
       <c r="V5" t="n">
-        <v>840.4214638411528</v>
+        <v>534.7928453799753</v>
       </c>
       <c r="W5" t="n">
-        <v>574.0438072739748</v>
+        <v>268.4151888127974</v>
       </c>
       <c r="X5" t="n">
-        <v>307.6661507067968</v>
+        <v>268.4151888127974</v>
       </c>
       <c r="Y5" t="n">
-        <v>307.6661507067968</v>
+        <v>268.4151888127974</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>626.7308562709218</v>
+        <v>650.2565623210693</v>
       </c>
       <c r="C6" t="n">
-        <v>452.2778269897948</v>
+        <v>475.8035330399423</v>
       </c>
       <c r="D6" t="n">
-        <v>303.3434173285435</v>
+        <v>326.869123378691</v>
       </c>
       <c r="E6" t="n">
-        <v>303.3434173285435</v>
+        <v>167.6316683732355</v>
       </c>
       <c r="F6" t="n">
-        <v>303.3434173285435</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G6" t="n">
-        <v>165.9467308776108</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H6" t="n">
-        <v>65.46256898749989</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I6" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J6" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K6" t="n">
-        <v>95.78113116957466</v>
+        <v>192.1295835699343</v>
       </c>
       <c r="L6" t="n">
-        <v>242.5255548298713</v>
+        <v>338.874007230231</v>
       </c>
       <c r="M6" t="n">
-        <v>433.1262439263951</v>
+        <v>529.4746963267547</v>
       </c>
       <c r="N6" t="n">
-        <v>643.1802110290001</v>
+        <v>739.5286634293598</v>
       </c>
       <c r="O6" t="n">
-        <v>813.1187583557299</v>
+        <v>909.4672107560896</v>
       </c>
       <c r="P6" t="n">
-        <v>930.1763583891335</v>
+        <v>1026.524810789493</v>
       </c>
       <c r="Q6" t="n">
         <v>1054.855520006025</v>
       </c>
       <c r="R6" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="S6" t="n">
-        <v>1023.082039254176</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="T6" t="n">
-        <v>1023.082039254176</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="U6" t="n">
-        <v>794.9461932909899</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="V6" t="n">
-        <v>794.9461932909899</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="W6" t="n">
-        <v>794.9461932909899</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="X6" t="n">
-        <v>794.9461932909899</v>
+        <v>1026.232198106091</v>
       </c>
       <c r="Y6" t="n">
-        <v>794.9461932909899</v>
+        <v>818.4718993411373</v>
       </c>
     </row>
     <row r="7">
@@ -4701,43 +4701,43 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>358.602653973024</v>
+        <v>606.8293986086069</v>
       </c>
       <c r="C7" t="n">
-        <v>189.666471045117</v>
+        <v>437.8932156807</v>
       </c>
       <c r="D7" t="n">
-        <v>189.666471045117</v>
+        <v>287.7765762683642</v>
       </c>
       <c r="E7" t="n">
-        <v>189.666471045117</v>
+        <v>287.7765762683642</v>
       </c>
       <c r="F7" t="n">
-        <v>189.666471045117</v>
+        <v>204.8909145793414</v>
       </c>
       <c r="G7" t="n">
-        <v>21.0971104001205</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="H7" t="n">
-        <v>21.0971104001205</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="I7" t="n">
-        <v>21.0971104001205</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="J7" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K7" t="n">
-        <v>126.4133765287947</v>
+        <v>126.4133765287946</v>
       </c>
       <c r="L7" t="n">
-        <v>316.7083726551009</v>
+        <v>316.7083726551008</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375336</v>
+        <v>527.7368878375335</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227046</v>
+        <v>739.1822330227045</v>
       </c>
       <c r="O7" t="n">
         <v>918.4699372075543</v>
@@ -4752,25 +4752,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S7" t="n">
-        <v>848.0684854165361</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T7" t="n">
-        <v>848.0684854165361</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U7" t="n">
-        <v>581.690828849358</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V7" t="n">
-        <v>579.3952331165541</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W7" t="n">
-        <v>579.3952331165541</v>
+        <v>788.4778634388466</v>
       </c>
       <c r="X7" t="n">
-        <v>579.3952331165541</v>
+        <v>788.4778634388466</v>
       </c>
       <c r="Y7" t="n">
-        <v>358.602653973024</v>
+        <v>788.4778634388466</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>842.8254949048037</v>
+        <v>2049.230175698008</v>
       </c>
       <c r="C8" t="n">
-        <v>473.8629779643919</v>
+        <v>1680.267658757597</v>
       </c>
       <c r="D8" t="n">
-        <v>473.8629779643919</v>
+        <v>1322.001960150846</v>
       </c>
       <c r="E8" t="n">
-        <v>473.8629779643919</v>
+        <v>936.2137075526018</v>
       </c>
       <c r="F8" t="n">
-        <v>62.87707317478439</v>
+        <v>525.2278027629943</v>
       </c>
       <c r="G8" t="n">
-        <v>51.2112552068556</v>
+        <v>109.5215807546615</v>
       </c>
       <c r="H8" t="n">
-        <v>51.2112552068556</v>
+        <v>51.21125520685555</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2112552068556</v>
+        <v>51.21125520685555</v>
       </c>
       <c r="J8" t="n">
-        <v>187.3702251467168</v>
+        <v>187.3702251467166</v>
       </c>
       <c r="K8" t="n">
-        <v>442.1757437607416</v>
+        <v>442.1757437607409</v>
       </c>
       <c r="L8" t="n">
-        <v>795.1862829045917</v>
+        <v>795.1862829045908</v>
       </c>
       <c r="M8" t="n">
-        <v>1219.647962995225</v>
+        <v>1219.647962995224</v>
       </c>
       <c r="N8" t="n">
-        <v>1655.591685209582</v>
+        <v>1655.59168520958</v>
       </c>
       <c r="O8" t="n">
-        <v>2053.905718940593</v>
+        <v>2053.905718940591</v>
       </c>
       <c r="P8" t="n">
-        <v>2359.356530550195</v>
+        <v>2359.356530550192</v>
       </c>
       <c r="Q8" t="n">
-        <v>2540.564622661161</v>
+        <v>2540.564622661158</v>
       </c>
       <c r="R8" t="n">
-        <v>2560.56276034278</v>
+        <v>2560.562760342777</v>
       </c>
       <c r="S8" t="n">
-        <v>2455.363687583974</v>
+        <v>2435.83001576213</v>
       </c>
       <c r="T8" t="n">
-        <v>2246.611603680247</v>
+        <v>2435.83001576213</v>
       </c>
       <c r="U8" t="n">
-        <v>1993.030425205817</v>
+        <v>2435.83001576213</v>
       </c>
       <c r="V8" t="n">
-        <v>1993.030425205817</v>
+        <v>2435.83001576213</v>
       </c>
       <c r="W8" t="n">
-        <v>1993.030425205817</v>
+        <v>2435.83001576213</v>
       </c>
       <c r="X8" t="n">
-        <v>1619.564666944737</v>
+        <v>2435.83001576213</v>
       </c>
       <c r="Y8" t="n">
-        <v>1229.425334968925</v>
+        <v>2435.83001576213</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041138965631</v>
+        <v>929.5097208010723</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8510846154361</v>
+        <v>755.0566915199453</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9166749541848</v>
+        <v>606.122281858694</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792199487294</v>
+        <v>446.8848268532385</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446619756144</v>
+        <v>300.3502688801235</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4424639718026</v>
+        <v>163.6480708763117</v>
       </c>
       <c r="H9" t="n">
         <v>71.66559839993886</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2112552068556</v>
+        <v>51.21125520685555</v>
       </c>
       <c r="J9" t="n">
-        <v>113.4887579637186</v>
+        <v>113.4887579637184</v>
       </c>
       <c r="K9" t="n">
-        <v>559.9063389572705</v>
+        <v>559.90633895727</v>
       </c>
       <c r="L9" t="n">
-        <v>908.2958075666613</v>
+        <v>854.4423223907506</v>
       </c>
       <c r="M9" t="n">
-        <v>1271.362276040962</v>
+        <v>1217.508790865051</v>
       </c>
       <c r="N9" t="n">
-        <v>1658.446678513531</v>
+        <v>1604.59319333762</v>
       </c>
       <c r="O9" t="n">
-        <v>1990.33348850092</v>
+        <v>1936.480003325008</v>
       </c>
       <c r="P9" t="n">
-        <v>2237.368846930544</v>
+        <v>2445.345361789033</v>
       </c>
       <c r="Q9" t="n">
-        <v>2560.56276034278</v>
+        <v>2560.562760342777</v>
       </c>
       <c r="R9" t="n">
-        <v>2560.56276034278</v>
+        <v>2560.562760342777</v>
       </c>
       <c r="S9" t="n">
-        <v>2424.826280251696</v>
+        <v>2424.826280251693</v>
       </c>
       <c r="T9" t="n">
-        <v>2230.816477685345</v>
+        <v>2230.816477685342</v>
       </c>
       <c r="U9" t="n">
-        <v>2002.726321751574</v>
+        <v>2002.726321751571</v>
       </c>
       <c r="V9" t="n">
-        <v>1767.574213519831</v>
+        <v>1767.574213519829</v>
       </c>
       <c r="W9" t="n">
-        <v>1513.33685679163</v>
+        <v>1513.336856791627</v>
       </c>
       <c r="X9" t="n">
-        <v>1305.485356586097</v>
+        <v>1305.485356586094</v>
       </c>
       <c r="Y9" t="n">
-        <v>1099.519450916631</v>
+        <v>1097.72505782114</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>514.950479215066</v>
+        <v>518.1771711294913</v>
       </c>
       <c r="C10" t="n">
-        <v>346.0142962871591</v>
+        <v>349.2409882015844</v>
       </c>
       <c r="D10" t="n">
-        <v>346.0142962871591</v>
+        <v>199.1243487892487</v>
       </c>
       <c r="E10" t="n">
-        <v>198.101202704766</v>
+        <v>51.21125520685555</v>
       </c>
       <c r="F10" t="n">
-        <v>51.2112552068556</v>
+        <v>51.21125520685555</v>
       </c>
       <c r="G10" t="n">
-        <v>51.2112552068556</v>
+        <v>51.21125520685555</v>
       </c>
       <c r="H10" t="n">
-        <v>51.2112552068556</v>
+        <v>51.21125520685555</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2112552068556</v>
+        <v>51.21125520685555</v>
       </c>
       <c r="J10" t="n">
-        <v>76.63468308380135</v>
+        <v>76.63468308380121</v>
       </c>
       <c r="K10" t="n">
-        <v>248.2500215676565</v>
+        <v>248.2500215676562</v>
       </c>
       <c r="L10" t="n">
-        <v>523.3850043368916</v>
+        <v>523.3850043368911</v>
       </c>
       <c r="M10" t="n">
-        <v>823.8653899904029</v>
+        <v>823.8653899904023</v>
       </c>
       <c r="N10" t="n">
-        <v>1122.635640101612</v>
+        <v>1122.635640101611</v>
       </c>
       <c r="O10" t="n">
-        <v>1382.58202793109</v>
+        <v>1382.582027931089</v>
       </c>
       <c r="P10" t="n">
-        <v>1581.490387616499</v>
+        <v>1581.490387616498</v>
       </c>
       <c r="Q10" t="n">
-        <v>1635.769145477362</v>
+        <v>1635.769145477361</v>
       </c>
       <c r="R10" t="n">
-        <v>1635.769145477362</v>
+        <v>1635.769145477361</v>
       </c>
       <c r="S10" t="n">
-        <v>1439.128892699196</v>
+        <v>1635.769145477361</v>
       </c>
       <c r="T10" t="n">
-        <v>1216.147591173601</v>
+        <v>1635.769145477361</v>
       </c>
       <c r="U10" t="n">
-        <v>927.0292176682431</v>
+        <v>1635.769145477361</v>
       </c>
       <c r="V10" t="n">
-        <v>924.5884949433231</v>
+        <v>1438.024936038239</v>
       </c>
       <c r="W10" t="n">
-        <v>924.5884949433231</v>
+        <v>1148.607766001278</v>
       </c>
       <c r="X10" t="n">
-        <v>696.5989440453058</v>
+        <v>920.6182151032612</v>
       </c>
       <c r="Y10" t="n">
-        <v>696.5989440453058</v>
+        <v>699.825635959731</v>
       </c>
     </row>
     <row r="11">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.77365361686</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362679</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
@@ -5044,7 +5044,7 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5074,19 +5074,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5120,28 +5120,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1520.445529061503</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N12" t="n">
-        <v>1520.445529061503</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O12" t="n">
-        <v>2072.35525930079</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
-        <v>2495.978408795858</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121643</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D13" t="n">
-        <v>194.8007783998286</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E13" t="n">
-        <v>175.9033664000583</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F13" t="n">
-        <v>175.9033664000583</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G13" t="n">
         <v>175.9033664000583</v>
@@ -5238,13 +5238,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1418.449741049605</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>1190.460190151587</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>969.6676110080573</v>
       </c>
     </row>
     <row r="14">
@@ -5260,16 +5260,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362684</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
@@ -5278,19 +5278,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5354,28 +5354,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F16" t="n">
         <v>484.8112968429803</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2333.093974969474</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2113.492509992416</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1824.417283336614</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1569.732795130727</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1280.315625093766</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1280.315625093766</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5497,46 +5497,46 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5588,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1103.652278938886</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1731.250242493492</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>869.6905094135296</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>700.7543264856228</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D19" t="n">
-        <v>550.637687073287</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.679061850319</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2263.824227505223</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.222762528164</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>2044.222762528164</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1789.538274322277</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1500.121104285317</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1272.131553387299</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1051.338974243769</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5734,28 +5734,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168604</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362679</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5828,28 +5828,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>948.5505208511906</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C22" t="n">
-        <v>779.6143379232838</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232838</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
         <v>484.8112968429803</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2404.976284215525</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2222.121449870429</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T22" t="n">
-        <v>2002.519984893371</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U22" t="n">
-        <v>1713.444758237568</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V22" t="n">
-        <v>1458.760270031681</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W22" t="n">
-        <v>1169.343099994721</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X22" t="n">
-        <v>1169.343099994721</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y22" t="n">
-        <v>948.5505208511906</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="23">
@@ -5980,7 +5980,7 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
@@ -5989,10 +5989,10 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6071,25 +6071,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1336.167399417937</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1859.536823237711</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>874.8686257536381</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>705.9324428257312</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>555.8158034133954</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1688.385853854706</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1505.299220625425</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>1277.309669727408</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>1056.517090583878</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6205,73 +6205,73 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111711</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6299,10 +6299,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
         <v>243.4633055756266</v>
@@ -6311,16 +6311,16 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>577.3880777468471</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1174.766565373399</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3192.420589669522</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C28" t="n">
-        <v>3023.484406741615</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D28" t="n">
-        <v>3023.484406741615</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E28" t="n">
-        <v>2875.571313159222</v>
+        <v>113.9333885650331</v>
       </c>
       <c r="F28" t="n">
-        <v>2728.681365661312</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>2561.485266376192</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>2419.77343521839</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296627</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998106</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>4623.787448650995</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>4404.185983673936</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>4146.160263640627</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>3891.47577543474</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>3602.05860539778</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X28" t="n">
-        <v>3374.069054499762</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y28" t="n">
-        <v>3374.069054499762</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="29">
@@ -6448,67 +6448,67 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111702</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
         <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6530,37 +6530,37 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G30" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797183</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191924</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L30" t="n">
-        <v>923.0670414349511</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M30" t="n">
-        <v>923.0670414349511</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N30" t="n">
-        <v>1550.665004989558</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
-        <v>2102.574735228845</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2526.197884723913</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,37 +6597,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>577.8620388433919</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>408.925855915485</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>408.925855915485</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797183</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1208.292633715179</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>980.3030828171618</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>759.5105036736317</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6679,7 +6679,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6688,46 +6688,46 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362685</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192412</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111694</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075786</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014776</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
         <v>4405.252601474784</v>
@@ -6739,10 +6739,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6773,10 +6773,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
         <v>243.4633055756266</v>
@@ -6785,22 +6785,22 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>577.3880777468471</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>803.2707707770348</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>634.3345878491281</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>484.2179484367925</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>336.3048548543995</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>336.3048548543995</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057736</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038346</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487569</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.46108051051</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854708</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648822</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1433.701365648822</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1205.711814750804</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>984.9192356072745</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6916,7 +6916,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6925,10 +6925,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
@@ -6952,7 +6952,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6970,16 +6970,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7016,25 +7016,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3194.624135499465</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>3025.687952571559</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D37" t="n">
-        <v>2875.571313159223</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E37" t="n">
-        <v>2875.571313159223</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="F37" t="n">
-        <v>2728.681365661313</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>2561.485266376193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>4690.833152398593</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>4658.231615269902</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>4369.1563886141</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>4114.471900408214</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>3825.054730371253</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>3597.065179473235</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>3376.272600329705</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7177,7 +7177,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7189,7 +7189,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7253,22 +7253,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1814.118720444889</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>802.9288273958734</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>802.9288273958734</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>652.8121879835377</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7365,19 +7365,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1205.369871369643</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>984.5772922261132</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7405,16 +7405,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7432,19 +7432,19 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
         <v>3820.749612123003</v>
@@ -7487,31 +7487,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1731.250242493492</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>788.0191461778176</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C43" t="n">
-        <v>788.0191461778176</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D43" t="n">
-        <v>637.9025067654818</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E43" t="n">
-        <v>489.9894131830887</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F43" t="n">
-        <v>343.0994656851783</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G43" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
         <v>175.9033664000583</v>
@@ -7596,25 +7596,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>2090.842153176861</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1836.157664970974</v>
       </c>
       <c r="W43" t="n">
-        <v>1418.449741049605</v>
+        <v>1546.740494934013</v>
       </c>
       <c r="X43" t="n">
-        <v>1190.460190151587</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="Y43" t="n">
-        <v>969.6676110080573</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="44">
@@ -7645,22 +7645,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075805</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7675,22 +7675,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7736,19 +7736,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1307.627092998424</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3194.624135499465</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>3025.687952571559</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>2875.571313159223</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>2875.571313159223</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>2728.681365661313</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>2561.485266376193</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>4368.814445232942</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>4079.73921857714</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>3825.054730371253</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>3825.054730371253</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>3597.065179473235</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>3376.272600329705</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.051220519418266</v>
+        <v>99.37288961069065</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8078,7 +8078,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>97.32166909127237</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8139,7 +8139,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>106.7437663446525</v>
+        <v>106.7437663446524</v>
       </c>
       <c r="L4" t="n">
         <v>162.4747015415544</v>
@@ -8297,7 +8297,7 @@
         <v>2.051220519418266</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>97.32166909127238</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8315,7 +8315,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>97.3216690912726</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8537,7 +8537,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>54.39745977364629</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8549,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>264.4747475094958</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.98618304348516</v>
+        <v>20.98618304348527</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23418,19 +23418,19 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>127.7255247667966</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -23478,7 +23478,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>271.4238899833687</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23655,16 +23655,16 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>68.29586847696642</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23718,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23892,13 +23892,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.09406519747981</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23946,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24135,10 +24135,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>24.80831533903368</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>72.11969353038577</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24369,19 +24369,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24423,10 +24423,10 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>105.2672314396028</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>125.5054897610407</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>30.73901155626828</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24846,7 +24846,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24855,7 +24855,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24900,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>63.36835372228745</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229311</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>65.75554125012903</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856539</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25137,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.5229983365909</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25314,25 +25314,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>24.63391537253449</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>185.1299285698839</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25551,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>125.5341284403486</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25605,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25788,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25800,10 +25800,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25836,10 +25836,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25848,10 +25848,10 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>271.4238899833687</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>15.00954930701826</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26076,7 +26076,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>146.0084629450597</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26085,7 +26085,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>634077.8302699273</v>
+        <v>634077.8302699272</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>634077.8302699273</v>
+        <v>634077.8302699272</v>
       </c>
     </row>
     <row r="14">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>800515.7256176767</v>
+      </c>
+      <c r="C2" t="n">
         <v>800515.7256176763</v>
       </c>
-      <c r="C2" t="n">
-        <v>800515.7256176765</v>
-      </c>
       <c r="D2" t="n">
-        <v>800515.7256176762</v>
+        <v>800515.7256176759</v>
       </c>
       <c r="E2" t="n">
+        <v>786967.9346977558</v>
+      </c>
+      <c r="F2" t="n">
+        <v>786967.934697756</v>
+      </c>
+      <c r="G2" t="n">
         <v>786967.9346977557</v>
       </c>
-      <c r="F2" t="n">
-        <v>786967.9346977557</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
+        <v>786967.934697756</v>
+      </c>
+      <c r="I2" t="n">
+        <v>786967.9346977561</v>
+      </c>
+      <c r="J2" t="n">
         <v>786967.9346977558</v>
       </c>
-      <c r="H2" t="n">
-        <v>786967.9346977556</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
+        <v>786967.9346977561</v>
+      </c>
+      <c r="L2" t="n">
         <v>786967.9346977558</v>
       </c>
-      <c r="J2" t="n">
-        <v>786967.9346977557</v>
-      </c>
-      <c r="K2" t="n">
-        <v>786967.9346977558</v>
-      </c>
-      <c r="L2" t="n">
-        <v>786967.9346977556</v>
-      </c>
       <c r="M2" t="n">
-        <v>786967.9346977557</v>
+        <v>786967.9346977561</v>
       </c>
       <c r="N2" t="n">
-        <v>786967.9346977558</v>
+        <v>786967.934697756</v>
       </c>
       <c r="O2" t="n">
-        <v>786967.9346977561</v>
+        <v>786967.9346977562</v>
       </c>
       <c r="P2" t="n">
-        <v>786967.9346977555</v>
+        <v>786967.934697756</v>
       </c>
     </row>
     <row r="3">
@@ -26371,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>390680.0076580783</v>
+        <v>390680.0076580774</v>
       </c>
       <c r="E3" t="n">
-        <v>507909.2320606939</v>
+        <v>507909.2320606948</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,31 +26383,31 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>6.548361852765082e-11</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911409</v>
+        <v>68999.15441911404</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2.574418839027077e-11</v>
       </c>
       <c r="L3" t="n">
-        <v>95270.23779101753</v>
+        <v>95270.23779101727</v>
       </c>
       <c r="M3" t="n">
-        <v>132717.9756954692</v>
+        <v>132717.9756954694</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.292036909864082e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>5.148837678054155e-11</v>
       </c>
     </row>
     <row r="4">
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>248543.2666865467</v>
+      </c>
+      <c r="C4" t="n">
         <v>248543.2666865468</v>
       </c>
-      <c r="C4" t="n">
-        <v>248543.2666865467</v>
-      </c>
       <c r="D4" t="n">
-        <v>136854.454766284</v>
+        <v>136854.4547662842</v>
       </c>
       <c r="E4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.200356756639</v>
       </c>
       <c r="F4" t="n">
+        <v>9337.200356756635</v>
+      </c>
+      <c r="G4" t="n">
         <v>9337.20035675659</v>
       </c>
-      <c r="G4" t="n">
-        <v>9337.200356756592</v>
-      </c>
       <c r="H4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.200356756643</v>
       </c>
       <c r="I4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.200356756624</v>
       </c>
       <c r="J4" t="n">
-        <v>9337.200356756653</v>
+        <v>9337.200356756563</v>
       </c>
       <c r="K4" t="n">
-        <v>9337.200356756712</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="L4" t="n">
-        <v>9337.200356756717</v>
+        <v>9337.200356756632</v>
       </c>
       <c r="M4" t="n">
-        <v>9337.20035675655</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="N4" t="n">
         <v>9337.20035675659</v>
       </c>
       <c r="O4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="P4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756613</v>
       </c>
     </row>
     <row r="5">
@@ -26472,10 +26472,10 @@
         <v>63047.80320426619</v>
       </c>
       <c r="C5" t="n">
-        <v>63047.8032042662</v>
+        <v>63047.80320426619</v>
       </c>
       <c r="D5" t="n">
-        <v>92902.86757567892</v>
+        <v>92902.86757567886</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-191163.3248643298</v>
+        <v>-191163.3248643292</v>
       </c>
       <c r="C6" t="n">
-        <v>488924.6557268636</v>
+        <v>488924.6557268634</v>
       </c>
       <c r="D6" t="n">
-        <v>180078.3956176349</v>
+        <v>180078.3956176355</v>
       </c>
       <c r="E6" t="n">
-        <v>168598.9724563981</v>
+        <v>168251.5932020404</v>
       </c>
       <c r="F6" t="n">
-        <v>676508.2045170921</v>
+        <v>676160.8252627351</v>
       </c>
       <c r="G6" t="n">
-        <v>676508.2045170922</v>
+        <v>676160.8252627352</v>
       </c>
       <c r="H6" t="n">
-        <v>676508.204517092</v>
+        <v>676160.8252627351</v>
       </c>
       <c r="I6" t="n">
-        <v>676508.2045170922</v>
+        <v>676160.8252627354</v>
       </c>
       <c r="J6" t="n">
-        <v>607509.0500979779</v>
+        <v>607161.6708436213</v>
       </c>
       <c r="K6" t="n">
-        <v>676508.2045170921</v>
+        <v>676160.8252627355</v>
       </c>
       <c r="L6" t="n">
-        <v>581237.9667260743</v>
+        <v>580890.5874717177</v>
       </c>
       <c r="M6" t="n">
-        <v>543790.2288216229</v>
+        <v>543442.8495672661</v>
       </c>
       <c r="N6" t="n">
-        <v>676508.2045170922</v>
+        <v>676160.8252627354</v>
       </c>
       <c r="O6" t="n">
-        <v>676508.2045170923</v>
+        <v>676160.8252627356</v>
       </c>
       <c r="P6" t="n">
-        <v>676508.2045170919</v>
+        <v>676160.8252627354</v>
       </c>
     </row>
   </sheetData>
@@ -26694,28 +26694,28 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>7.5791225147744e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>7.5791225147744e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>9.65407064635154e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>9.65407064635154e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>1.316432677153248e-13</v>
+        <v>7.5791225147744e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26727,7 +26727,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26743,7 +26743,7 @@
         <v>614.0550137694783</v>
       </c>
       <c r="D3" t="n">
-        <v>933.7024595627823</v>
+        <v>933.7024595627815</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26792,10 +26792,10 @@
         <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="D4" t="n">
-        <v>640.140690085695</v>
+        <v>640.1406900856944</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>7.5791225147744e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26925,19 +26925,19 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>9.65407064635154e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>3.510256125180943e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26946,10 +26946,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.615046137330103e-13</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26965,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>319.6474457933041</v>
+        <v>319.6474457933033</v>
       </c>
       <c r="E3" t="n">
-        <v>434.2730407788914</v>
+        <v>434.2730407788922</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27017,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>376.4268100841888</v>
+        <v>376.4268100841882</v>
       </c>
       <c r="E4" t="n">
-        <v>532.5675980139533</v>
+        <v>532.567598013954</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015059</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841891</v>
+        <v>376.4268100841882</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139536</v>
+        <v>532.567598013954</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>7.5791225147744e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27162,16 +27162,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>9.65407064635154e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27263,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841888</v>
+        <v>376.4268100841882</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139533</v>
+        <v>532.567598013954</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>119.0199616619744</v>
       </c>
       <c r="C2" t="n">
-        <v>101.5590117695014</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>90.96916161917682</v>
@@ -27393,10 +27393,10 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>174.8653227588713</v>
       </c>
       <c r="H2" t="n">
-        <v>50.47975262776185</v>
+        <v>314.193632629268</v>
       </c>
       <c r="I2" t="n">
         <v>115.3066195468971</v>
@@ -27432,13 +27432,13 @@
         <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1481678782825</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.4730089554531</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27463,22 +27463,22 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>132.386346123974</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,28 +27505,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527768</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>192.3910669936728</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27536,22 +27536,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.8836670385466</v>
+        <v>112.5205648326224</v>
       </c>
       <c r="H4" t="n">
         <v>152.3821593358568</v>
@@ -27560,7 +27560,7 @@
         <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888209</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27590,22 +27590,22 @@
         <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
         <v>286.2586305026775</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>22.80911833508486</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>63.4722935333086</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27618,7 +27618,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>140.1382145298789</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27633,10 +27633,10 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>165.507122659977</v>
+        <v>314.193632629268</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,19 +27669,19 @@
         <v>152.7676931992223</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1481678782825</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>64.03837846862876</v>
       </c>
       <c r="W5" t="n">
-        <v>85.52708871590681</v>
+        <v>85.52708871590687</v>
       </c>
       <c r="X5" t="n">
-        <v>106.0172206769628</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27703,19 +27703,19 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,16 +27742,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527768</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>115.6941894678689</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T6" t="n">
         <v>194.8409875848768</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -27760,10 +27760,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>195.5884214778211</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27773,19 +27773,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>63.36424295079861</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27797,7 +27797,7 @@
         <v>122.1505735248085</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888209</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27824,25 +27824,25 @@
         <v>127.5046028836639</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T7" t="n">
         <v>223.2143458795659</v>
       </c>
       <c r="U7" t="n">
-        <v>22.54475050117128</v>
+        <v>286.2586305026775</v>
       </c>
       <c r="V7" t="n">
-        <v>249.8650035483521</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>22.80911833508486</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27858,22 +27858,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0334742203004</v>
+        <v>243.3062519279726</v>
       </c>
       <c r="I8" t="n">
-        <v>65.76608425465045</v>
+        <v>65.76608425465056</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>19.33833510362244</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6645630646898</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0453666896857</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27918,10 +27918,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27949,7 +27949,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1.77644916453599</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -28000,7 +28000,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>1.776449164533147</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -28016,22 +28016,22 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.3072536117062</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2573199590395</v>
+        <v>147.2573199590396</v>
       </c>
       <c r="I10" t="n">
-        <v>104.8162497430995</v>
+        <v>104.8162497430996</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5869591640954</v>
+        <v>101.5869591640955</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6738502503845</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7514885103388</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271897703044</v>
       </c>
       <c r="V10" t="n">
-        <v>249.7213278261572</v>
+        <v>56.37087597909772</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28089,25 +28089,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>7.5791225147744e-14</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>7.5791225147744e-14</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>7.5791225147744e-14</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>7.5791225147744e-14</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>7.5791225147744e-14</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>7.5791225147744e-14</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>7.5791225147744e-14</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>7.5791225147744e-14</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>7.5791225147744e-14</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>7.5791225147744e-14</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>7.5791225147744e-14</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>7.5791225147744e-14</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>7.5791225147744e-14</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>7.5791225147744e-14</v>
       </c>
     </row>
     <row r="12">
@@ -28326,22 +28326,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>7.5791225147744e-14</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>7.5791225147744e-14</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>7.5791225147744e-14</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>7.5791225147744e-14</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>7.5791225147744e-14</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>7.5791225147744e-14</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28377,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>7.5791225147744e-14</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>7.5791225147744e-14</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>7.5791225147744e-14</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>7.5791225147744e-14</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>7.5791225147744e-14</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>7.5791225147744e-14</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>7.5791225147744e-14</v>
       </c>
     </row>
     <row r="15">
@@ -28800,25 +28800,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28851,25 +28851,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
     </row>
     <row r="21">
@@ -29052,10 +29052,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29088,25 +29088,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
     </row>
     <row r="24">
@@ -29274,25 +29274,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>9.65407064635154e-14</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>9.65407064635154e-14</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>9.65407064635154e-14</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>9.65407064635154e-14</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>9.65407064635154e-14</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>9.65407064635154e-14</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>9.65407064635154e-14</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29325,25 +29325,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>9.65407064635154e-14</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>9.65407064635154e-14</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>9.65407064635154e-14</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>9.65407064635154e-14</v>
+        <v>-5.785973998768142e-13</v>
       </c>
       <c r="W26" t="n">
-        <v>9.65407064635154e-14</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>9.65407064635154e-14</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>9.65407064635154e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -29511,10 +29511,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>9.65407064635154e-14</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>9.65407064635154e-14</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -29523,13 +29523,13 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>9.65407064635154e-14</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>9.65407064635154e-14</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>9.65407064635154e-14</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29562,25 +29562,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>9.65407064635154e-14</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>9.65407064635154e-14</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>1.735792199630443e-12</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>9.65407064635154e-14</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>9.65407064635154e-14</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>9.65407064635154e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -29748,25 +29748,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1.316432677153248e-13</v>
+        <v>7.5791225147744e-14</v>
       </c>
       <c r="C32" t="n">
-        <v>1.316432677153248e-13</v>
+        <v>7.5791225147744e-14</v>
       </c>
       <c r="D32" t="n">
-        <v>1.316432677153248e-13</v>
+        <v>7.5791225147744e-14</v>
       </c>
       <c r="E32" t="n">
-        <v>1.316432677153248e-13</v>
+        <v>7.5791225147744e-14</v>
       </c>
       <c r="F32" t="n">
-        <v>1.316432677153248e-13</v>
+        <v>7.5791225147744e-14</v>
       </c>
       <c r="G32" t="n">
-        <v>1.316432677153248e-13</v>
+        <v>7.5791225147744e-14</v>
       </c>
       <c r="H32" t="n">
-        <v>1.316432677153248e-13</v>
+        <v>7.5791225147744e-14</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29799,25 +29799,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>1.316432677153248e-13</v>
+        <v>7.5791225147744e-14</v>
       </c>
       <c r="T32" t="n">
-        <v>1.316432677153248e-13</v>
+        <v>7.5791225147744e-14</v>
       </c>
       <c r="U32" t="n">
-        <v>1.316432677153248e-13</v>
+        <v>7.5791225147744e-14</v>
       </c>
       <c r="V32" t="n">
-        <v>1.316432677153248e-13</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>1.316432677153248e-13</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>1.316432677153248e-13</v>
+        <v>7.5791225147744e-14</v>
       </c>
       <c r="Y32" t="n">
-        <v>1.316432677153248e-13</v>
+        <v>7.5791225147744e-14</v>
       </c>
     </row>
     <row r="33">
@@ -29906,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1.316432677153248e-13</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>1.316432677153248e-13</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>1.316432677153248e-13</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>1.316432677153248e-13</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>1.316432677153248e-13</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.316432677153248e-13</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>1.316432677153248e-13</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>1.316432677153248e-13</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>1.316432677153248e-13</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>1.316432677153248e-13</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>1.316432677153248e-13</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>1.316432677153248e-13</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>1.316432677153248e-13</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>1.316432677153248e-13</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>1.316432677153248e-13</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.316432677153248e-13</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>1.316432677153248e-13</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>1.316432677153248e-13</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>1.316432677153248e-13</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>1.316432677153248e-13</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>1.316432677153248e-13</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>1.316432677153248e-13</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>1.316432677153248e-13</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>1.316432677153248e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -29985,25 +29985,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30036,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -30753,7 +30753,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>5.142369289011372e-13</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.753577726885554</v>
+        <v>3.753577726885551</v>
       </c>
       <c r="H8" t="n">
-        <v>38.44132789546669</v>
+        <v>38.44132789546666</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7098053157555</v>
+        <v>144.7098053157553</v>
       </c>
       <c r="J8" t="n">
-        <v>318.5802175972531</v>
+        <v>318.5802175972528</v>
       </c>
       <c r="K8" t="n">
-        <v>477.4691627763187</v>
+        <v>477.4691627763183</v>
       </c>
       <c r="L8" t="n">
-        <v>592.3427171354926</v>
+        <v>592.3427171354921</v>
       </c>
       <c r="M8" t="n">
-        <v>659.0954050359935</v>
+        <v>659.0954050359931</v>
       </c>
       <c r="N8" t="n">
-        <v>669.7602577525072</v>
+        <v>669.7602577525066</v>
       </c>
       <c r="O8" t="n">
-        <v>632.4356192307889</v>
+        <v>632.4356192307883</v>
       </c>
       <c r="P8" t="n">
-        <v>539.7691690983017</v>
+        <v>539.7691690983013</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.3441667542127</v>
+        <v>405.3441667542123</v>
       </c>
       <c r="R8" t="n">
-        <v>235.7856768864749</v>
+        <v>235.7856768864747</v>
       </c>
       <c r="S8" t="n">
-        <v>85.53465245140465</v>
+        <v>85.53465245140458</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43128649944152</v>
+        <v>16.43128649944151</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3002862181508443</v>
+        <v>0.3002862181508441</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.008341139436928</v>
+        <v>2.008341139436927</v>
       </c>
       <c r="H9" t="n">
-        <v>19.39634732035139</v>
+        <v>19.39634732035137</v>
       </c>
       <c r="I9" t="n">
-        <v>69.14683309026266</v>
+        <v>69.1468330902626</v>
       </c>
       <c r="J9" t="n">
-        <v>189.7441951079424</v>
+        <v>189.7441951079423</v>
       </c>
       <c r="K9" t="n">
-        <v>324.3030514502166</v>
+        <v>324.3030514502163</v>
       </c>
       <c r="L9" t="n">
-        <v>436.0654741571278</v>
+        <v>436.0654741571274</v>
       </c>
       <c r="M9" t="n">
-        <v>508.8678404617163</v>
+        <v>508.8678404617159</v>
       </c>
       <c r="N9" t="n">
-        <v>522.3360580152211</v>
+        <v>522.3360580152206</v>
       </c>
       <c r="O9" t="n">
-        <v>477.8354464519081</v>
+        <v>477.8354464519076</v>
       </c>
       <c r="P9" t="n">
-        <v>383.5050724947587</v>
+        <v>383.5050724947584</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.36298474637</v>
+        <v>256.3629847463698</v>
       </c>
       <c r="R9" t="n">
-        <v>124.6933209204788</v>
+        <v>124.6933209204787</v>
       </c>
       <c r="S9" t="n">
-        <v>37.30405581366397</v>
+        <v>37.30405581366394</v>
       </c>
       <c r="T9" t="n">
-        <v>8.095024154133931</v>
+        <v>8.095024154133924</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321277065419032</v>
+        <v>0.1321277065419031</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.683725746752558</v>
+        <v>1.683725746752557</v>
       </c>
       <c r="H10" t="n">
-        <v>14.96985254840003</v>
+        <v>14.96985254840001</v>
       </c>
       <c r="I10" t="n">
-        <v>50.63422518415877</v>
+        <v>50.63422518415872</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0394102954059</v>
+        <v>119.0394102954058</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6183185772517</v>
+        <v>195.6183185772516</v>
       </c>
       <c r="L10" t="n">
-        <v>250.3240987490122</v>
+        <v>250.324098749012</v>
       </c>
       <c r="M10" t="n">
-        <v>263.9316641023123</v>
+        <v>263.9316641023121</v>
       </c>
       <c r="N10" t="n">
-        <v>257.6559590462348</v>
+        <v>257.6559590462346</v>
       </c>
       <c r="O10" t="n">
-        <v>237.9869810046253</v>
+        <v>237.9869810046251</v>
       </c>
       <c r="P10" t="n">
-        <v>203.6389757708729</v>
+        <v>203.6389757708728</v>
       </c>
       <c r="Q10" t="n">
-        <v>140.9890713939801</v>
+        <v>140.98907139398</v>
       </c>
       <c r="R10" t="n">
-        <v>75.70643221307409</v>
+        <v>75.70643221307402</v>
       </c>
       <c r="S10" t="n">
-        <v>29.34274778658775</v>
+        <v>29.34274778658773</v>
       </c>
       <c r="T10" t="n">
-        <v>7.194100917942746</v>
+        <v>7.19410091794274</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09183958618650327</v>
+        <v>0.0918395861865032</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31840,7 +31840,7 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
@@ -31849,22 +31849,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>339.9772972286971</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>160.6314956130963</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32074,13 +32074,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
@@ -32092,13 +32092,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>225.4828684302377</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32311,34 +32311,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>661.8411144019728</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32548,13 +32548,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
@@ -32563,16 +32563,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>290.6810969936921</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32791,7 +32791,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32800,19 +32800,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>659.9976957396707</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33031,19 +33031,19 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>538.1718564803244</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33262,16 +33262,16 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>175.6052721551106</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
@@ -33280,10 +33280,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>167.1165249313368</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33505,25 +33505,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>245.8118639189582</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33666,7 +33666,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175679</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
         <v>981.2715114159425</v>
@@ -33681,7 +33681,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -33736,28 +33736,28 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>270.9486956727256</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33973,10 +33973,10 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33985,13 +33985,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O39" t="n">
-        <v>461.1007071927452</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34207,13 +34207,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
@@ -34222,7 +34222,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>681.5735157229393</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
@@ -34231,10 +34231,10 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34456,22 +34456,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>379.4203056753705</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>97.32166909127238</v>
       </c>
       <c r="K3" t="n">
         <v>75.43840481763047</v>
@@ -34798,7 +34798,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>125.9385470877688</v>
+        <v>28.61687799649638</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>106.3800667966406</v>
+        <v>106.3800667966405</v>
       </c>
       <c r="L4" t="n">
         <v>192.2171678043497</v>
@@ -35017,7 +35017,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>75.43840481763047</v>
+        <v>172.7600739089029</v>
       </c>
       <c r="L6" t="n">
         <v>148.2266905659562</v>
@@ -35035,7 +35035,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q6" t="n">
-        <v>125.938547087769</v>
+        <v>28.61687799649638</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.5343130705668</v>
+        <v>137.5343130705666</v>
       </c>
       <c r="K8" t="n">
-        <v>257.3793117313381</v>
+        <v>257.3793117313377</v>
       </c>
       <c r="L8" t="n">
-        <v>356.5763021655054</v>
+        <v>356.5763021655048</v>
       </c>
       <c r="M8" t="n">
-        <v>428.7491718087208</v>
+        <v>428.7491718087203</v>
       </c>
       <c r="N8" t="n">
-        <v>440.3471941559163</v>
+        <v>440.3471941559157</v>
       </c>
       <c r="O8" t="n">
-        <v>402.3374078091022</v>
+        <v>402.3374078091016</v>
       </c>
       <c r="P8" t="n">
-        <v>308.5361733430322</v>
+        <v>308.5361733430317</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.0384768797632</v>
+        <v>183.0384768797628</v>
       </c>
       <c r="R8" t="n">
-        <v>20.20013907234278</v>
+        <v>20.20013907234258</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.90656844127574</v>
+        <v>62.90656844127557</v>
       </c>
       <c r="K9" t="n">
-        <v>450.9268494884362</v>
+        <v>450.9268494884359</v>
       </c>
       <c r="L9" t="n">
-        <v>351.9085541508999</v>
+        <v>297.5110943772532</v>
       </c>
       <c r="M9" t="n">
-        <v>366.733806539698</v>
+        <v>366.7338065396976</v>
       </c>
       <c r="N9" t="n">
-        <v>390.9943459318878</v>
+        <v>390.9943459318873</v>
       </c>
       <c r="O9" t="n">
-        <v>335.2392020074636</v>
+        <v>335.2392020074632</v>
       </c>
       <c r="P9" t="n">
-        <v>249.5306650804284</v>
+        <v>514.0054125899239</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.4584983961976</v>
+        <v>116.3812106603482</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.68023017873308</v>
+        <v>25.68023017873298</v>
       </c>
       <c r="K10" t="n">
-        <v>173.3488267513688</v>
+        <v>173.3488267513687</v>
       </c>
       <c r="L10" t="n">
-        <v>277.9141240093284</v>
+        <v>277.9141240093281</v>
       </c>
       <c r="M10" t="n">
-        <v>303.5155410641529</v>
+        <v>303.5155410641527</v>
       </c>
       <c r="N10" t="n">
-        <v>301.7881314254635</v>
+        <v>301.7881314254632</v>
       </c>
       <c r="O10" t="n">
-        <v>262.572108918665</v>
+        <v>262.5721089186648</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9175350357664</v>
+        <v>200.9175350357663</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.82702814228576</v>
+        <v>54.82702814228561</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
@@ -35497,22 +35497,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>197.8432633066788</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>20.64972152707474</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35722,13 +35722,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
@@ -35740,13 +35740,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>82.88662398579324</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35959,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>519.7070804799545</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36196,13 +36196,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
@@ -36211,16 +36211,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>159.3393849103587</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36439,7 +36439,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36448,19 +36448,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>528.6559836563374</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36594,7 +36594,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396416</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
         <v>479.454324036777</v>
@@ -36679,19 +36679,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>406.8301443969911</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36910,16 +36910,16 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>37.76383318075158</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
@@ -36928,10 +36928,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>27.13475084531527</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37153,25 +37153,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>103.6778299969399</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295349</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096351</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37314,7 +37314,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193516</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>128.8146617507074</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37545,7 +37545,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
@@ -37566,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,10 +37621,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37633,13 +37633,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O39" t="n">
-        <v>318.5044627483008</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37855,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
@@ -37870,7 +37870,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>550.231803639606</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
@@ -37879,10 +37879,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38104,22 +38104,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>237.2862717533522</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_14_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_14_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3834802.295465422</v>
+        <v>3836562.825768206</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283186</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -664,16 +664,16 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
+        <v>232.0107229828401</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
         <v>263.7138800015061</v>
       </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>6.876045741711437</v>
-      </c>
       <c r="G2" t="n">
-        <v>237.9688518868387</v>
+        <v>12.83417464571001</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -740,7 +740,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>43.92180400150558</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,19 +785,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527768</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>147.1499354121988</v>
+        <v>70.68458844193594</v>
       </c>
       <c r="T3" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
-        <v>40.40952015575248</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -831,16 +831,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>54.36310220592415</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>54.36310220592416</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888209</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>225.1346772411287</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>263.7138800015061</v>
       </c>
       <c r="W5" t="n">
-        <v>263.7138800015061</v>
+        <v>225.1346772411287</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527768</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1062,13 +1062,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>82.05680507213263</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.8836670385466</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888209</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>263.7138800015061</v>
+        <v>220.7993414426849</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1147,10 +1147,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>411.5491597882495</v>
+        <v>206.5238605593603</v>
       </c>
       <c r="H8" t="n">
-        <v>57.72722229232789</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4854171348408</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1229,10 +1229,10 @@
         <v>135.3351760237737</v>
       </c>
       <c r="H9" t="n">
-        <v>91.06264775160911</v>
+        <v>92.83909691614511</v>
       </c>
       <c r="I9" t="n">
-        <v>20.24979976115247</v>
+        <v>18.47335059661205</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1299,7 +1299,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>90.06308666746955</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>195.7667673447303</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.154082144413</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695523</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T11" t="n">
         <v>199.022230457616</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701348</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1545,10 +1545,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1587,10 +1587,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>126.9420388308264</v>
       </c>
       <c r="W13" t="n">
-        <v>15.09910835322229</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444135</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695521</v>
+        <v>83.70251495695523</v>
       </c>
       <c r="T14" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881285</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701348</v>
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1767,7 +1767,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1782,10 +1782,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1843,13 +1843,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,16 +1894,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569552</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881285</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1912,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="18">
@@ -2004,25 +2004,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>28.75188085812011</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>99.97427419833862</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2089,10 +2089,10 @@
         <v>354.6830416206829</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
@@ -2131,16 +2131,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695521</v>
+        <v>83.7025149569552</v>
       </c>
       <c r="T20" t="n">
         <v>199.022230457616</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881285</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2149,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2259,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>108.9065924712588</v>
+        <v>108.9065924712593</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2368,16 +2368,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695521</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881285</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2386,7 +2386,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2481,19 +2481,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>9.146142788179482</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>107.4021082756243</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2560,19 +2560,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206843</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187868</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,16 +2605,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2718,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>19.91555826189057</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>27.0291980517616</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2806,10 +2806,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,16 +2842,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701341</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2952,7 +2952,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>95.12712756824217</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>9.146142788179482</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3028,16 +3028,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.6830416206829</v>
+        <v>354.6830416206835</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3079,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695521</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T32" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881285</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.2409687174132</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3201,10 +3201,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3265,22 +3265,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634807</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710077</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206831</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722619</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417116</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695774</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576162</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881257</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3334,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560537</v>
       </c>
     </row>
     <row r="36">
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819374</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.246821098628</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>148.6154730182125</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>145.7379152067497</v>
       </c>
       <c r="F37" t="n">
-        <v>120.7871326503968</v>
+        <v>145.4210480229314</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.524138292269</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.294712846224</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856566</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016447</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272884</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238281</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365911</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520949</v>
       </c>
     </row>
     <row r="38">
@@ -3505,7 +3505,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3517,10 +3517,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695543</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881288</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3660,25 +3660,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819374</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>27.24739666248344</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182125</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465693</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229314</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>165.524138292269</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101218</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016447</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1844743892443</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238281</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365911</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890373</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520949</v>
       </c>
     </row>
     <row r="41">
@@ -3754,7 +3754,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3796,7 +3796,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3906,19 +3906,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833859</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>210.7001060820189</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3991,10 +3991,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695686</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4140,7 +4140,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4152,10 +4152,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>186.0007748420842</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4312,13 +4312,13 @@
         <v>534.7928453799753</v>
       </c>
       <c r="D2" t="n">
-        <v>268.4151888127974</v>
+        <v>300.4385797407429</v>
       </c>
       <c r="E2" t="n">
-        <v>268.4151888127974</v>
+        <v>300.4385797407429</v>
       </c>
       <c r="F2" t="n">
-        <v>261.4696880635939</v>
+        <v>34.06092317356495</v>
       </c>
       <c r="G2" t="n">
         <v>21.09711040012049</v>
@@ -4330,16 +4330,16 @@
         <v>21.09711040012049</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917582</v>
+        <v>49.28269087917585</v>
       </c>
       <c r="K2" t="n">
         <v>142.2640879052541</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515904</v>
+        <v>294.5174947515906</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030603</v>
+        <v>495.5981834030605</v>
       </c>
       <c r="N2" t="n">
         <v>704.5463761991316</v>
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>650.2565623210693</v>
+        <v>520.1689916273217</v>
       </c>
       <c r="C3" t="n">
-        <v>475.8035330399423</v>
+        <v>520.1689916273217</v>
       </c>
       <c r="D3" t="n">
-        <v>326.869123378691</v>
+        <v>371.2345819660704</v>
       </c>
       <c r="E3" t="n">
-        <v>167.6316683732355</v>
+        <v>211.9971269606149</v>
       </c>
       <c r="F3" t="n">
-        <v>21.09711040012049</v>
+        <v>65.46256898749988</v>
       </c>
       <c r="G3" t="n">
-        <v>21.09711040012049</v>
+        <v>65.46256898749988</v>
       </c>
       <c r="H3" t="n">
-        <v>21.09711040012049</v>
+        <v>65.46256898749988</v>
       </c>
       <c r="I3" t="n">
         <v>21.09711040012049</v>
       </c>
       <c r="J3" t="n">
-        <v>117.4455628004801</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K3" t="n">
-        <v>192.1295835699343</v>
+        <v>95.78113116957468</v>
       </c>
       <c r="L3" t="n">
-        <v>338.874007230231</v>
+        <v>242.5255548298714</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4746963267547</v>
+        <v>433.1262439263952</v>
       </c>
       <c r="N3" t="n">
-        <v>739.5286634293598</v>
+        <v>643.1802110290002</v>
       </c>
       <c r="O3" t="n">
-        <v>909.4672107560896</v>
+        <v>813.1187583557301</v>
       </c>
       <c r="P3" t="n">
-        <v>1026.524810789493</v>
+        <v>930.1763583891336</v>
       </c>
       <c r="Q3" t="n">
         <v>1054.855520006025</v>
       </c>
       <c r="R3" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S3" t="n">
-        <v>887.8833378166544</v>
+        <v>983.4569458222509</v>
       </c>
       <c r="T3" t="n">
-        <v>691.074259448092</v>
+        <v>983.4569458222509</v>
       </c>
       <c r="U3" t="n">
-        <v>691.074259448092</v>
+        <v>755.3210998590644</v>
       </c>
       <c r="V3" t="n">
-        <v>650.2565623210693</v>
+        <v>520.1689916273217</v>
       </c>
       <c r="W3" t="n">
-        <v>650.2565623210693</v>
+        <v>520.1689916273217</v>
       </c>
       <c r="X3" t="n">
-        <v>650.2565623210693</v>
+        <v>520.1689916273217</v>
       </c>
       <c r="Y3" t="n">
-        <v>650.2565623210693</v>
+        <v>520.1689916273217</v>
       </c>
     </row>
     <row r="4">
@@ -4479,31 +4479,31 @@
         <v>91.23377838477327</v>
       </c>
       <c r="G4" t="n">
-        <v>36.32155393434483</v>
+        <v>91.23377838477327</v>
       </c>
       <c r="H4" t="n">
-        <v>36.32155393434483</v>
+        <v>91.23377838477327</v>
       </c>
       <c r="I4" t="n">
-        <v>36.32155393434483</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="J4" t="n">
         <v>21.09711040012049</v>
       </c>
       <c r="K4" t="n">
-        <v>126.4133765287946</v>
+        <v>126.4133765287947</v>
       </c>
       <c r="L4" t="n">
-        <v>316.7083726551008</v>
+        <v>316.708372655101</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375335</v>
+        <v>527.7368878375337</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227045</v>
+        <v>739.1822330227047</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075542</v>
+        <v>918.4699372075544</v>
       </c>
       <c r="P4" t="n">
         <v>1048.360858816803</v>
@@ -4543,7 +4543,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>268.4151888127974</v>
+        <v>307.3840804899464</v>
       </c>
       <c r="C5" t="n">
         <v>41.00642392276842</v>
@@ -4567,22 +4567,22 @@
         <v>21.09711040012049</v>
       </c>
       <c r="J5" t="n">
-        <v>49.28269087917579</v>
+        <v>49.28269087917585</v>
       </c>
       <c r="K5" t="n">
-        <v>142.2640879052547</v>
+        <v>142.2640879052541</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515909</v>
+        <v>294.5174947515907</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030606</v>
+        <v>495.5981834030601</v>
       </c>
       <c r="N5" t="n">
-        <v>704.5463761991318</v>
+        <v>704.5463761991316</v>
       </c>
       <c r="O5" t="n">
-        <v>888.5149683358416</v>
+        <v>888.5149683358413</v>
       </c>
       <c r="P5" t="n">
         <v>1011.026904601763</v>
@@ -4606,13 +4606,13 @@
         <v>534.7928453799753</v>
       </c>
       <c r="W5" t="n">
-        <v>268.4151888127974</v>
+        <v>307.3840804899464</v>
       </c>
       <c r="X5" t="n">
-        <v>268.4151888127974</v>
+        <v>307.3840804899464</v>
       </c>
       <c r="Y5" t="n">
-        <v>268.4151888127974</v>
+        <v>307.3840804899464</v>
       </c>
     </row>
     <row r="6">
@@ -4649,10 +4649,10 @@
         <v>21.09711040012049</v>
       </c>
       <c r="K6" t="n">
-        <v>192.1295835699343</v>
+        <v>192.1295835699341</v>
       </c>
       <c r="L6" t="n">
-        <v>338.874007230231</v>
+        <v>338.8740072302309</v>
       </c>
       <c r="M6" t="n">
         <v>529.4746963267547</v>
@@ -4701,46 +4701,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>606.8293986086069</v>
+        <v>650.177417354891</v>
       </c>
       <c r="C7" t="n">
-        <v>437.8932156807</v>
+        <v>481.2412344269841</v>
       </c>
       <c r="D7" t="n">
-        <v>287.7765762683642</v>
+        <v>331.1245950146483</v>
       </c>
       <c r="E7" t="n">
-        <v>287.7765762683642</v>
+        <v>183.2115014322552</v>
       </c>
       <c r="F7" t="n">
-        <v>204.8909145793414</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="G7" t="n">
-        <v>36.32155393434483</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="H7" t="n">
-        <v>36.32155393434483</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="I7" t="n">
-        <v>36.32155393434483</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="J7" t="n">
         <v>21.09711040012049</v>
       </c>
       <c r="K7" t="n">
-        <v>126.4133765287946</v>
+        <v>126.4133765287944</v>
       </c>
       <c r="L7" t="n">
-        <v>316.7083726551008</v>
+        <v>316.7083726551007</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375335</v>
+        <v>527.7368878375333</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227045</v>
+        <v>739.1822330227044</v>
       </c>
       <c r="O7" t="n">
-        <v>918.4699372075543</v>
+        <v>918.469937207554</v>
       </c>
       <c r="P7" t="n">
         <v>1048.360858816803</v>
@@ -4764,13 +4764,13 @@
         <v>1054.855520006025</v>
       </c>
       <c r="W7" t="n">
-        <v>788.4778634388466</v>
+        <v>831.8258821851307</v>
       </c>
       <c r="X7" t="n">
-        <v>788.4778634388466</v>
+        <v>831.8258821851307</v>
       </c>
       <c r="Y7" t="n">
-        <v>788.4778634388466</v>
+        <v>831.8258821851307</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2049.230175698008</v>
+        <v>1783.823588302839</v>
       </c>
       <c r="C8" t="n">
-        <v>1680.267658757597</v>
+        <v>1414.861071362428</v>
       </c>
       <c r="D8" t="n">
-        <v>1322.001960150846</v>
+        <v>1056.595372755677</v>
       </c>
       <c r="E8" t="n">
-        <v>936.2137075526018</v>
+        <v>670.807120157433</v>
       </c>
       <c r="F8" t="n">
-        <v>525.2278027629943</v>
+        <v>259.8212153678255</v>
       </c>
       <c r="G8" t="n">
-        <v>109.5215807546615</v>
+        <v>51.21125520685546</v>
       </c>
       <c r="H8" t="n">
-        <v>51.21125520685555</v>
+        <v>51.21125520685546</v>
       </c>
       <c r="I8" t="n">
-        <v>51.21125520685555</v>
+        <v>51.21125520685546</v>
       </c>
       <c r="J8" t="n">
-        <v>187.3702251467166</v>
+        <v>187.3702251467162</v>
       </c>
       <c r="K8" t="n">
-        <v>442.1757437607409</v>
+        <v>442.1757437607402</v>
       </c>
       <c r="L8" t="n">
-        <v>795.1862829045908</v>
+        <v>795.1862829045895</v>
       </c>
       <c r="M8" t="n">
-        <v>1219.647962995224</v>
+        <v>1219.647962995222</v>
       </c>
       <c r="N8" t="n">
-        <v>1655.59168520958</v>
+        <v>1655.591685209578</v>
       </c>
       <c r="O8" t="n">
-        <v>2053.905718940591</v>
+        <v>2053.905718940588</v>
       </c>
       <c r="P8" t="n">
-        <v>2359.356530550192</v>
+        <v>2359.356530550189</v>
       </c>
       <c r="Q8" t="n">
-        <v>2540.564622661158</v>
+        <v>2540.564622661154</v>
       </c>
       <c r="R8" t="n">
-        <v>2560.562760342777</v>
+        <v>2560.562760342773</v>
       </c>
       <c r="S8" t="n">
-        <v>2435.83001576213</v>
+        <v>2560.562760342773</v>
       </c>
       <c r="T8" t="n">
-        <v>2435.83001576213</v>
+        <v>2560.562760342773</v>
       </c>
       <c r="U8" t="n">
-        <v>2435.83001576213</v>
+        <v>2560.562760342773</v>
       </c>
       <c r="V8" t="n">
-        <v>2435.83001576213</v>
+        <v>2560.562760342773</v>
       </c>
       <c r="W8" t="n">
-        <v>2435.83001576213</v>
+        <v>2560.562760342773</v>
       </c>
       <c r="X8" t="n">
-        <v>2435.83001576213</v>
+        <v>2560.562760342773</v>
       </c>
       <c r="Y8" t="n">
-        <v>2435.83001576213</v>
+        <v>2170.423428366961</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>929.5097208010723</v>
+        <v>929.5097208010677</v>
       </c>
       <c r="C9" t="n">
-        <v>755.0566915199453</v>
+        <v>755.0566915199407</v>
       </c>
       <c r="D9" t="n">
-        <v>606.122281858694</v>
+        <v>606.1222818586895</v>
       </c>
       <c r="E9" t="n">
-        <v>446.8848268532385</v>
+        <v>446.884826853234</v>
       </c>
       <c r="F9" t="n">
-        <v>300.3502688801235</v>
+        <v>300.350268880119</v>
       </c>
       <c r="G9" t="n">
-        <v>163.6480708763117</v>
+        <v>163.6480708763071</v>
       </c>
       <c r="H9" t="n">
-        <v>71.66559839993886</v>
+        <v>69.87120530444339</v>
       </c>
       <c r="I9" t="n">
-        <v>51.21125520685555</v>
+        <v>51.21125520685546</v>
       </c>
       <c r="J9" t="n">
-        <v>113.4887579637184</v>
+        <v>113.4887579637182</v>
       </c>
       <c r="K9" t="n">
-        <v>559.90633895727</v>
+        <v>559.9063389572696</v>
       </c>
       <c r="L9" t="n">
-        <v>854.4423223907506</v>
+        <v>854.44232239075</v>
       </c>
       <c r="M9" t="n">
-        <v>1217.508790865051</v>
+        <v>1217.50879086505</v>
       </c>
       <c r="N9" t="n">
-        <v>1604.59319333762</v>
+        <v>1604.593193337618</v>
       </c>
       <c r="O9" t="n">
-        <v>1936.480003325008</v>
+        <v>1936.480003325007</v>
       </c>
       <c r="P9" t="n">
-        <v>2445.345361789033</v>
+        <v>2445.345361789028</v>
       </c>
       <c r="Q9" t="n">
-        <v>2560.562760342777</v>
+        <v>2560.562760342773</v>
       </c>
       <c r="R9" t="n">
-        <v>2560.562760342777</v>
+        <v>2560.562760342773</v>
       </c>
       <c r="S9" t="n">
-        <v>2424.826280251693</v>
+        <v>2424.826280251688</v>
       </c>
       <c r="T9" t="n">
-        <v>2230.816477685342</v>
+        <v>2230.816477685337</v>
       </c>
       <c r="U9" t="n">
-        <v>2002.726321751571</v>
+        <v>2002.726321751567</v>
       </c>
       <c r="V9" t="n">
-        <v>1767.574213519829</v>
+        <v>1767.574213519824</v>
       </c>
       <c r="W9" t="n">
-        <v>1513.336856791627</v>
+        <v>1513.336856791622</v>
       </c>
       <c r="X9" t="n">
-        <v>1305.485356586094</v>
+        <v>1305.48535658609</v>
       </c>
       <c r="Y9" t="n">
-        <v>1097.72505782114</v>
+        <v>1097.725057821136</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>518.1771711294913</v>
+        <v>461.2368923627239</v>
       </c>
       <c r="C10" t="n">
-        <v>349.2409882015844</v>
+        <v>292.300709434817</v>
       </c>
       <c r="D10" t="n">
-        <v>199.1243487892487</v>
+        <v>142.1840700224813</v>
       </c>
       <c r="E10" t="n">
-        <v>51.21125520685555</v>
+        <v>51.21125520685546</v>
       </c>
       <c r="F10" t="n">
-        <v>51.21125520685555</v>
+        <v>51.21125520685546</v>
       </c>
       <c r="G10" t="n">
-        <v>51.21125520685555</v>
+        <v>51.21125520685546</v>
       </c>
       <c r="H10" t="n">
-        <v>51.21125520685555</v>
+        <v>51.21125520685546</v>
       </c>
       <c r="I10" t="n">
-        <v>51.21125520685555</v>
+        <v>51.21125520685546</v>
       </c>
       <c r="J10" t="n">
-        <v>76.63468308380121</v>
+        <v>76.63468308380102</v>
       </c>
       <c r="K10" t="n">
-        <v>248.2500215676562</v>
+        <v>248.2500215676559</v>
       </c>
       <c r="L10" t="n">
-        <v>523.3850043368911</v>
+        <v>523.3850043368905</v>
       </c>
       <c r="M10" t="n">
-        <v>823.8653899904023</v>
+        <v>823.8653899904014</v>
       </c>
       <c r="N10" t="n">
-        <v>1122.635640101611</v>
+        <v>1122.63564010161</v>
       </c>
       <c r="O10" t="n">
-        <v>1382.582027931089</v>
+        <v>1382.582027931088</v>
       </c>
       <c r="P10" t="n">
-        <v>1581.490387616498</v>
+        <v>1581.490387616496</v>
       </c>
       <c r="Q10" t="n">
-        <v>1635.769145477361</v>
+        <v>1635.769145477359</v>
       </c>
       <c r="R10" t="n">
-        <v>1635.769145477361</v>
+        <v>1635.769145477359</v>
       </c>
       <c r="S10" t="n">
-        <v>1635.769145477361</v>
+        <v>1635.769145477359</v>
       </c>
       <c r="T10" t="n">
-        <v>1635.769145477361</v>
+        <v>1635.769145477359</v>
       </c>
       <c r="U10" t="n">
-        <v>1635.769145477361</v>
+        <v>1635.769145477359</v>
       </c>
       <c r="V10" t="n">
-        <v>1438.024936038239</v>
+        <v>1381.084657271472</v>
       </c>
       <c r="W10" t="n">
-        <v>1148.607766001278</v>
+        <v>1091.667487234511</v>
       </c>
       <c r="X10" t="n">
-        <v>920.6182151032612</v>
+        <v>863.6779363364938</v>
       </c>
       <c r="Y10" t="n">
-        <v>699.825635959731</v>
+        <v>642.8853571929636</v>
       </c>
     </row>
     <row r="11">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.77365361686</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362679</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
@@ -5044,19 +5044,19 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5074,19 +5074,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5114,13 +5114,13 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K12" t="n">
         <v>577.3880777468471</v>
@@ -5175,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>788.0191461778176</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="C13" t="n">
-        <v>788.0191461778176</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D13" t="n">
-        <v>637.9025067654818</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E13" t="n">
-        <v>489.9894131830887</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F13" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5235,16 +5235,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1560.161572207407</v>
       </c>
       <c r="W13" t="n">
-        <v>1418.449741049605</v>
+        <v>1560.161572207407</v>
       </c>
       <c r="X13" t="n">
-        <v>1190.460190151587</v>
+        <v>1332.172021309389</v>
       </c>
       <c r="Y13" t="n">
-        <v>969.6676110080573</v>
+        <v>1111.379442165859</v>
       </c>
     </row>
     <row r="14">
@@ -5260,28 +5260,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111722</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5305,7 +5305,7 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474784</v>
@@ -5351,25 +5351,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143764</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5415,34 +5415,34 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5491,49 +5491,49 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111692</v>
       </c>
       <c r="K17" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075785</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852254</v>
@@ -5542,25 +5542,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5591,22 +5591,22 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429802</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797186</v>
@@ -5676,49 +5676,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5734,10 +5734,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
         <v>793.7736536168611</v>
@@ -5749,13 +5749,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5764,7 +5764,7 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.422291068009</v>
@@ -5828,22 +5828,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5889,52 +5889,52 @@
         <v>653.7474797708871</v>
       </c>
       <c r="C22" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S22" t="n">
         <v>2336.956424518383</v>
@@ -5983,16 +5983,16 @@
         <v>379.8308874362685</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6001,22 +6001,22 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
         <v>4405.252601474784</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,25 +6062,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J24" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2437.724555511392</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166297</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>2338.476105524075</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="26">
@@ -6202,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551877</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6217,13 +6217,13 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111717</v>
@@ -6232,46 +6232,46 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="27">
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,10 +6299,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J27" t="n">
         <v>243.4633055756266</v>
@@ -6317,7 +6317,7 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D28" t="n">
-        <v>261.8464821474262</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E28" t="n">
-        <v>113.9333885650331</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F28" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6442,7 +6442,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6451,34 +6451,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6490,22 +6490,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6545,16 +6545,16 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>280.8495004245706</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2437.724555511392</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S31" t="n">
-        <v>2254.869721166297</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="32">
@@ -6676,10 +6676,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6691,61 +6691,61 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="33">
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,10 +6773,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J33" t="n">
         <v>243.4633055756266</v>
@@ -6791,7 +6791,7 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6916,7 +6916,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6925,22 +6925,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192542</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311171</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6952,34 +6952,34 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,10 +7010,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J36" t="n">
         <v>243.4633055756266</v>
@@ -7028,7 +7028,7 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,37 +7071,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>1097.964082041487</v>
       </c>
       <c r="C37" t="n">
-        <v>513.8536007400712</v>
+        <v>929.0278991135804</v>
       </c>
       <c r="D37" t="n">
-        <v>363.7369613277355</v>
+        <v>778.9112597012445</v>
       </c>
       <c r="E37" t="n">
-        <v>215.8238677453423</v>
+        <v>631.7012443408912</v>
       </c>
       <c r="F37" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429807</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578605</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000584</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235164</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258105</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>2044.506784258105</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1789.822296052218</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1500.405126015258</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>1500.405126015258</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>1279.612546871727</v>
       </c>
     </row>
     <row r="38">
@@ -7153,7 +7153,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7162,61 +7162,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,10 +7247,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J39" t="n">
         <v>243.4633055756266</v>
@@ -7262,7 +7262,7 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N39" t="n">
         <v>2001.151557821488</v>
@@ -7308,37 +7308,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>733.4550657171292</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>705.9324428257318</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>555.8158034133959</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310026</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330921</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S40" t="n">
         <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1907.987318831764</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>1135.896109690899</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>915.103530547369</v>
       </c>
     </row>
     <row r="41">
@@ -7390,7 +7390,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7399,19 +7399,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075809</v>
@@ -7423,28 +7423,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V41" t="n">
         <v>3820.749612123003</v>
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7484,22 +7484,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N42" t="n">
         <v>2001.151557821488</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>931.4710609784063</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C43" t="n">
-        <v>762.5348780504994</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D43" t="n">
-        <v>612.4182386381636</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E43" t="n">
-        <v>464.5051450557705</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F43" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1546.740494934013</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>1333.912104952176</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>1113.119525808646</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.77365361686</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7712,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7721,10 +7721,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J45" t="n">
         <v>243.4633055756266</v>
@@ -7736,7 +7736,7 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N45" t="n">
         <v>2001.151557821488</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>803.8641191832228</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>634.9279362553159</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>985.5125840134625</v>
       </c>
     </row>
   </sheetData>
@@ -8002,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.51967546761153</v>
+        <v>60.51967546761151</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>99.37288961069065</v>
+        <v>2.051220519418237</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8078,7 +8078,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>97.32166909127223</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8139,7 +8139,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>106.7437663446524</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L4" t="n">
         <v>162.4747015415544</v>
@@ -8154,7 +8154,7 @@
         <v>163.0416663658825</v>
       </c>
       <c r="P4" t="n">
-        <v>135.0065633140411</v>
+        <v>135.0065633140408</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>60.51967546761153</v>
+        <v>60.51967546761151</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>2.051220519418266</v>
+        <v>2.051220519418237</v>
       </c>
       <c r="K6" t="n">
-        <v>97.32166909127238</v>
+        <v>97.32166909127218</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8549,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>264.4747475094958</v>
+        <v>264.4747475094928</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.98618304348527</v>
+        <v>20.98618304348535</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>-2.387423592153937e-12</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23433,7 +23433,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23475,10 +23475,10 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>125.1956044930016</v>
       </c>
       <c r="W13" t="n">
-        <v>271.4238899833687</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23655,7 +23655,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23892,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823055</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>72.11969353038577</v>
+        <v>72.11969353038532</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>57.2291039219422</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>110.0033420516639</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>125.5054897610407</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>138.4949402405072</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24840,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>72.11969353038566</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>57.2291039219422</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25089,13 +25089,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25314,25 +25314,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>0.6960474398195799</v>
       </c>
       <c r="F37" t="n">
-        <v>24.63391537253449</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.3752467101218</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25368,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892443</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890373</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25551,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>139.9994244361445</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194221</v>
+        <v>140.294712846224</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856566</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25602,7 +25602,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272884</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25794,19 +25794,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>46.45968844823058</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,10 +25836,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>15.00954930701826</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26028,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>39.708880546953</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>634077.8302699272</v>
+        <v>634077.830269927</v>
       </c>
     </row>
     <row r="8">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>634077.8302699272</v>
+        <v>634077.8302699273</v>
       </c>
     </row>
   </sheetData>
@@ -26313,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>800515.7256176767</v>
+        <v>800515.7256176763</v>
       </c>
       <c r="C2" t="n">
-        <v>800515.7256176763</v>
+        <v>800515.7256176762</v>
       </c>
       <c r="D2" t="n">
         <v>800515.7256176759</v>
@@ -26325,34 +26325,34 @@
         <v>786967.9346977558</v>
       </c>
       <c r="F2" t="n">
+        <v>786967.9346977558</v>
+      </c>
+      <c r="G2" t="n">
         <v>786967.934697756</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
+        <v>786967.9346977558</v>
+      </c>
+      <c r="I2" t="n">
+        <v>786967.9346977556</v>
+      </c>
+      <c r="J2" t="n">
         <v>786967.9346977557</v>
       </c>
-      <c r="H2" t="n">
-        <v>786967.934697756</v>
-      </c>
-      <c r="I2" t="n">
-        <v>786967.9346977561</v>
-      </c>
-      <c r="J2" t="n">
-        <v>786967.9346977558</v>
-      </c>
       <c r="K2" t="n">
-        <v>786967.9346977561</v>
+        <v>786967.9346977556</v>
       </c>
       <c r="L2" t="n">
         <v>786967.9346977558</v>
       </c>
       <c r="M2" t="n">
-        <v>786967.9346977561</v>
+        <v>786967.9346977556</v>
       </c>
       <c r="N2" t="n">
+        <v>786967.9346977557</v>
+      </c>
+      <c r="O2" t="n">
         <v>786967.934697756</v>
-      </c>
-      <c r="O2" t="n">
-        <v>786967.9346977562</v>
       </c>
       <c r="P2" t="n">
         <v>786967.934697756</v>
@@ -26371,34 +26371,34 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>390680.0076580774</v>
+        <v>390680.0076580764</v>
       </c>
       <c r="E3" t="n">
-        <v>507909.2320606948</v>
+        <v>507909.2320606954</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>3.535601535986644e-10</v>
       </c>
       <c r="H3" t="n">
-        <v>6.548361852765082e-11</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911404</v>
+        <v>68999.15441911401</v>
       </c>
       <c r="K3" t="n">
-        <v>2.574418839027077e-11</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>95270.23779101727</v>
+        <v>95270.23779101708</v>
       </c>
       <c r="M3" t="n">
-        <v>132717.9756954694</v>
+        <v>132717.9756954695</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>5.148837678054155e-11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26420,46 +26420,46 @@
         <v>248543.2666865467</v>
       </c>
       <c r="C4" t="n">
-        <v>248543.2666865468</v>
+        <v>248543.2666865467</v>
       </c>
       <c r="D4" t="n">
-        <v>136854.4547662842</v>
+        <v>136854.4547662845</v>
       </c>
       <c r="E4" t="n">
         <v>9337.200356756639</v>
       </c>
       <c r="F4" t="n">
-        <v>9337.200356756635</v>
+        <v>9337.200356756624</v>
       </c>
       <c r="G4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756617</v>
       </c>
       <c r="H4" t="n">
-        <v>9337.200356756643</v>
+        <v>9337.200356756619</v>
       </c>
       <c r="I4" t="n">
-        <v>9337.200356756624</v>
+        <v>9337.200356756548</v>
       </c>
       <c r="J4" t="n">
-        <v>9337.200356756563</v>
+        <v>9337.200356756508</v>
       </c>
       <c r="K4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756577</v>
       </c>
       <c r="L4" t="n">
-        <v>9337.200356756632</v>
+        <v>9337.200356756566</v>
       </c>
       <c r="M4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756384</v>
       </c>
       <c r="N4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756526</v>
       </c>
       <c r="O4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756584</v>
       </c>
       <c r="P4" t="n">
-        <v>9337.200356756613</v>
+        <v>9337.200356756508</v>
       </c>
     </row>
     <row r="5">
@@ -26475,7 +26475,7 @@
         <v>63047.80320426619</v>
       </c>
       <c r="D5" t="n">
-        <v>92902.86757567886</v>
+        <v>92902.86757567877</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-191163.3248643292</v>
+        <v>-191163.3248643297</v>
       </c>
       <c r="C6" t="n">
-        <v>488924.6557268634</v>
+        <v>488924.6557268632</v>
       </c>
       <c r="D6" t="n">
-        <v>180078.3956176355</v>
+        <v>180078.3956176362</v>
       </c>
       <c r="E6" t="n">
-        <v>168251.5932020404</v>
+        <v>168564.234530961</v>
       </c>
       <c r="F6" t="n">
-        <v>676160.8252627351</v>
+        <v>676473.4665916566</v>
       </c>
       <c r="G6" t="n">
-        <v>676160.8252627352</v>
+        <v>676473.4665916563</v>
       </c>
       <c r="H6" t="n">
-        <v>676160.8252627351</v>
+        <v>676473.4665916564</v>
       </c>
       <c r="I6" t="n">
-        <v>676160.8252627354</v>
+        <v>676473.4665916562</v>
       </c>
       <c r="J6" t="n">
-        <v>607161.6708436213</v>
+        <v>607474.3121725426</v>
       </c>
       <c r="K6" t="n">
-        <v>676160.8252627355</v>
+        <v>676473.4665916563</v>
       </c>
       <c r="L6" t="n">
-        <v>580890.5874717177</v>
+        <v>581203.2288006395</v>
       </c>
       <c r="M6" t="n">
-        <v>543442.8495672661</v>
+        <v>543755.490896187</v>
       </c>
       <c r="N6" t="n">
-        <v>676160.8252627354</v>
+        <v>676473.4665916564</v>
       </c>
       <c r="O6" t="n">
-        <v>676160.8252627356</v>
+        <v>676473.4665916567</v>
       </c>
       <c r="P6" t="n">
-        <v>676160.8252627354</v>
+        <v>676473.4665916567</v>
       </c>
     </row>
   </sheetData>
@@ -26694,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26715,7 +26715,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26727,7 +26727,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="D3" t="n">
-        <v>933.7024595627815</v>
+        <v>933.7024595627809</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26795,7 +26795,7 @@
         <v>263.7138800015061</v>
       </c>
       <c r="D4" t="n">
-        <v>640.1406900856944</v>
+        <v>640.1406900856932</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26810,28 +26810,28 @@
         <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
     </row>
   </sheetData>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26925,7 +26925,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26934,10 +26934,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>3.283034125526954e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26949,7 +26949,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26959,22 +26959,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>319.6474457933033</v>
+        <v>319.6474457933026</v>
       </c>
       <c r="E3" t="n">
-        <v>434.2730407788922</v>
+        <v>434.2730407788927</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27017,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>376.4268100841882</v>
+        <v>376.4268100841871</v>
       </c>
       <c r="E4" t="n">
-        <v>532.567598013954</v>
+        <v>532.5675980139549</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27041,10 +27041,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841882</v>
+        <v>376.4268100841873</v>
       </c>
       <c r="M4" t="n">
-        <v>532.567598013954</v>
+        <v>532.5675980139549</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27162,7 +27162,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27171,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27263,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841882</v>
+        <v>376.4268100841871</v>
       </c>
       <c r="M4" t="n">
-        <v>532.567598013954</v>
+        <v>532.5675980139549</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,16 +27384,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>90.96916161917682</v>
+        <v>122.6723186378429</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
+        <v>143.1621657402053</v>
+      </c>
+      <c r="G2" t="n">
         <v>400</v>
-      </c>
-      <c r="G2" t="n">
-        <v>174.8653227588713</v>
       </c>
       <c r="H2" t="n">
         <v>314.193632629268</v>
@@ -27460,7 +27460,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27475,10 +27475,10 @@
         <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120976</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I3" t="n">
-        <v>43.9218040015056</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,19 +27505,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>76.46534697026283</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>192.3910669936728</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -27551,13 +27551,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>112.5205648326224</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
         <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
-        <v>122.1505735248085</v>
+        <v>67.78747131888437</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27618,7 +27618,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>140.1382145298789</v>
+        <v>101.5590117695014</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27678,7 +27678,7 @@
         <v>64.03837846862876</v>
       </c>
       <c r="W5" t="n">
-        <v>85.52708871590687</v>
+        <v>124.1062914762843</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27712,10 +27712,10 @@
         <v>136.0227195864234</v>
       </c>
       <c r="H6" t="n">
-        <v>99.47932027120976</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I6" t="n">
-        <v>43.9218040015056</v>
+        <v>43.92180400150558</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27782,13 +27782,13 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>63.36424295079861</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H7" t="n">
         <v>152.3821593358568</v>
@@ -27836,7 +27836,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>22.80911833508486</v>
+        <v>65.72365689390608</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>205.0252992288892</v>
       </c>
       <c r="H8" t="n">
-        <v>243.3062519279726</v>
+        <v>301.0334742203005</v>
       </c>
       <c r="I8" t="n">
-        <v>65.76608425465056</v>
+        <v>65.76608425465068</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4854171348408</v>
       </c>
       <c r="T8" t="n">
         <v>206.6645630646898</v>
@@ -27921,7 +27921,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -27949,10 +27949,10 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>1.77644916453599</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1.776449164540466</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -28019,7 +28019,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>56.37087597909962</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28070,7 +28070,7 @@
         <v>286.2271897703044</v>
       </c>
       <c r="V10" t="n">
-        <v>56.37087597909772</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28089,25 +28089,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="C11" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="D11" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="E11" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="F11" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="G11" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="H11" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="T11" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="U11" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="V11" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="W11" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="X11" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="Y11" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>7.579122514774402e-14</v>
       </c>
     </row>
     <row r="12">
@@ -28326,22 +28326,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="C14" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="D14" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="E14" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="F14" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="G14" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28377,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="T14" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="W14" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="Y14" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>7.579122514774402e-14</v>
       </c>
     </row>
     <row r="15">
@@ -28563,13 +28563,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -28581,7 +28581,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28614,16 +28614,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -28632,7 +28632,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
     </row>
     <row r="18">
@@ -28800,25 +28800,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="C20" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="D20" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="E20" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="H20" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28851,25 +28851,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="T20" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="U20" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="V20" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -29049,13 +29049,13 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="G23" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="H23" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29088,25 +29088,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="U23" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="V23" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -29274,25 +29274,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>-6.501057674310801e-14</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>-6.501057674310801e-14</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>-1.3639153663441e-12</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>-6.501057674310801e-14</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>-6.501057674310801e-14</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>-6.501057674310801e-14</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29325,16 +29325,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>-6.501057674310801e-14</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>-6.501057674310801e-14</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>-5.785973998768142e-13</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -29526,10 +29526,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>-6.501057674310801e-14</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>-6.501057674310801e-14</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29562,13 +29562,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>-6.501057674310801e-14</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>-6.501057674310801e-14</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>-6.501057674310801e-14</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -29748,25 +29748,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>-5.464171643889758e-13</v>
       </c>
       <c r="E32" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29799,13 +29799,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -29814,10 +29814,10 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -29985,22 +29985,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30036,13 +30036,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>-2.458477865729947e-12</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -30054,7 +30054,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
     </row>
     <row r="36">
@@ -30143,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
     </row>
     <row r="38">
@@ -30237,10 +30237,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30273,13 +30273,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -30380,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
     </row>
     <row r="41">
@@ -30474,7 +30474,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>-6.371036520824585e-14</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -30516,7 +30516,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>-6.371036520824585e-14</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -30711,10 +30711,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>-6.371036520824585e-14</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>-6.371036520824585e-14</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -30747,13 +30747,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>-1.577404873387422e-12</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>-6.371036520824585e-14</v>
       </c>
       <c r="U44" t="n">
-        <v>5.142369289011372e-13</v>
+        <v>-6.371036520824585e-14</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -31041,31 +31041,31 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.468562869425036</v>
+        <v>2.468562869425037</v>
       </c>
       <c r="H2" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I2" t="n">
-        <v>95.1692700235088</v>
+        <v>95.16927002350883</v>
       </c>
       <c r="J2" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K2" t="n">
-        <v>314.0104541016252</v>
+        <v>314.0104541016253</v>
       </c>
       <c r="L2" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M2" t="n">
-        <v>433.4580399459292</v>
+        <v>433.4580399459293</v>
       </c>
       <c r="N2" t="n">
-        <v>440.4718441986831</v>
+        <v>440.4718441986832</v>
       </c>
       <c r="O2" t="n">
-        <v>415.9250721658379</v>
+        <v>415.925072165838</v>
       </c>
       <c r="P2" t="n">
         <v>354.9824263269073</v>
@@ -31077,7 +31077,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S2" t="n">
-        <v>56.25237638702307</v>
+        <v>56.25237638702308</v>
       </c>
       <c r="T2" t="n">
         <v>10.8061339609081</v>
@@ -31126,16 +31126,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I3" t="n">
-        <v>45.47482884990948</v>
+        <v>45.47482884990949</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7864061472484</v>
+        <v>124.7864061472485</v>
       </c>
       <c r="K3" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L3" t="n">
-        <v>286.7810703458304</v>
+        <v>286.7810703458305</v>
       </c>
       <c r="M3" t="n">
         <v>334.6599825043656</v>
@@ -31144,25 +31144,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O3" t="n">
-        <v>314.2513427542725</v>
+        <v>314.2513427542726</v>
       </c>
       <c r="P3" t="n">
-        <v>252.2144074480712</v>
+        <v>252.2144074480713</v>
       </c>
       <c r="Q3" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R3" t="n">
-        <v>82.00530919736545</v>
+        <v>82.00530919736546</v>
       </c>
       <c r="S3" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T3" t="n">
-        <v>5.323741109944814</v>
+        <v>5.323741109944815</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08689457742020923</v>
+        <v>0.08689457742020924</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31202,16 +31202,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H4" t="n">
-        <v>9.845013171582789</v>
+        <v>9.84501317158279</v>
       </c>
       <c r="I4" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J4" t="n">
-        <v>78.28698101779068</v>
+        <v>78.28698101779069</v>
       </c>
       <c r="K4" t="n">
-        <v>128.6495586225234</v>
+        <v>128.6495586225235</v>
       </c>
       <c r="L4" t="n">
         <v>164.6271425440336</v>
@@ -31223,25 +31223,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O4" t="n">
-        <v>156.513563181768</v>
+        <v>156.5135631817681</v>
       </c>
       <c r="P4" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.72230707919121</v>
+        <v>92.72230707919122</v>
       </c>
       <c r="R4" t="n">
-        <v>49.78878849350555</v>
+        <v>49.78878849350556</v>
       </c>
       <c r="S4" t="n">
-        <v>19.29743379337851</v>
+        <v>19.29743379337852</v>
       </c>
       <c r="T4" t="n">
-        <v>4.731243548715651</v>
+        <v>4.731243548715652</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06039885381339136</v>
+        <v>0.06039885381339138</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,31 +31278,31 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.468562869425036</v>
+        <v>2.468562869425037</v>
       </c>
       <c r="H5" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I5" t="n">
-        <v>95.1692700235088</v>
+        <v>95.16927002350883</v>
       </c>
       <c r="J5" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K5" t="n">
-        <v>314.0104541016252</v>
+        <v>314.0104541016253</v>
       </c>
       <c r="L5" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M5" t="n">
-        <v>433.4580399459292</v>
+        <v>433.4580399459293</v>
       </c>
       <c r="N5" t="n">
-        <v>440.4718441986831</v>
+        <v>440.4718441986832</v>
       </c>
       <c r="O5" t="n">
-        <v>415.9250721658379</v>
+        <v>415.925072165838</v>
       </c>
       <c r="P5" t="n">
         <v>354.9824263269073</v>
@@ -31314,7 +31314,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S5" t="n">
-        <v>56.25237638702307</v>
+        <v>56.25237638702308</v>
       </c>
       <c r="T5" t="n">
         <v>10.8061339609081</v>
@@ -31363,16 +31363,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I6" t="n">
-        <v>45.47482884990948</v>
+        <v>45.47482884990949</v>
       </c>
       <c r="J6" t="n">
-        <v>124.7864061472484</v>
+        <v>124.7864061472485</v>
       </c>
       <c r="K6" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L6" t="n">
-        <v>286.7810703458304</v>
+        <v>286.7810703458305</v>
       </c>
       <c r="M6" t="n">
         <v>334.6599825043656</v>
@@ -31381,25 +31381,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O6" t="n">
-        <v>314.2513427542725</v>
+        <v>314.2513427542726</v>
       </c>
       <c r="P6" t="n">
-        <v>252.2144074480712</v>
+        <v>252.2144074480713</v>
       </c>
       <c r="Q6" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R6" t="n">
-        <v>82.00530919736545</v>
+        <v>82.00530919736546</v>
       </c>
       <c r="S6" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T6" t="n">
-        <v>5.323741109944814</v>
+        <v>5.323741109944815</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08689457742020923</v>
+        <v>0.08689457742020924</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31439,16 +31439,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H7" t="n">
-        <v>9.845013171582789</v>
+        <v>9.84501317158279</v>
       </c>
       <c r="I7" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J7" t="n">
-        <v>78.28698101779068</v>
+        <v>78.28698101779069</v>
       </c>
       <c r="K7" t="n">
-        <v>128.6495586225234</v>
+        <v>128.6495586225235</v>
       </c>
       <c r="L7" t="n">
         <v>164.6271425440336</v>
@@ -31460,25 +31460,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O7" t="n">
-        <v>156.513563181768</v>
+        <v>156.5135631817681</v>
       </c>
       <c r="P7" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q7" t="n">
-        <v>92.72230707919121</v>
+        <v>92.72230707919122</v>
       </c>
       <c r="R7" t="n">
-        <v>49.78878849350555</v>
+        <v>49.78878849350556</v>
       </c>
       <c r="S7" t="n">
-        <v>19.29743379337851</v>
+        <v>19.29743379337852</v>
       </c>
       <c r="T7" t="n">
-        <v>4.731243548715651</v>
+        <v>4.731243548715652</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06039885381339136</v>
+        <v>0.06039885381339138</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.753577726885551</v>
+        <v>3.753577726885548</v>
       </c>
       <c r="H8" t="n">
-        <v>38.44132789546666</v>
+        <v>38.44132789546664</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7098053157553</v>
+        <v>144.7098053157552</v>
       </c>
       <c r="J8" t="n">
-        <v>318.5802175972528</v>
+        <v>318.5802175972526</v>
       </c>
       <c r="K8" t="n">
-        <v>477.4691627763183</v>
+        <v>477.4691627763179</v>
       </c>
       <c r="L8" t="n">
-        <v>592.3427171354921</v>
+        <v>592.3427171354916</v>
       </c>
       <c r="M8" t="n">
-        <v>659.0954050359931</v>
+        <v>659.0954050359925</v>
       </c>
       <c r="N8" t="n">
-        <v>669.7602577525066</v>
+        <v>669.7602577525062</v>
       </c>
       <c r="O8" t="n">
-        <v>632.4356192307883</v>
+        <v>632.4356192307879</v>
       </c>
       <c r="P8" t="n">
-        <v>539.7691690983013</v>
+        <v>539.7691690983008</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.3441667542123</v>
+        <v>405.344166754212</v>
       </c>
       <c r="R8" t="n">
-        <v>235.7856768864747</v>
+        <v>235.7856768864745</v>
       </c>
       <c r="S8" t="n">
-        <v>85.53465245140458</v>
+        <v>85.53465245140453</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43128649944151</v>
+        <v>16.4312864994415</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3002862181508441</v>
+        <v>0.3002862181508438</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.008341139436927</v>
+        <v>2.008341139436925</v>
       </c>
       <c r="H9" t="n">
-        <v>19.39634732035137</v>
+        <v>19.39634732035136</v>
       </c>
       <c r="I9" t="n">
-        <v>69.1468330902626</v>
+        <v>69.14683309026256</v>
       </c>
       <c r="J9" t="n">
-        <v>189.7441951079423</v>
+        <v>189.7441951079421</v>
       </c>
       <c r="K9" t="n">
-        <v>324.3030514502163</v>
+        <v>324.3030514502161</v>
       </c>
       <c r="L9" t="n">
-        <v>436.0654741571274</v>
+        <v>436.0654741571271</v>
       </c>
       <c r="M9" t="n">
-        <v>508.8678404617159</v>
+        <v>508.8678404617155</v>
       </c>
       <c r="N9" t="n">
-        <v>522.3360580152206</v>
+        <v>522.3360580152203</v>
       </c>
       <c r="O9" t="n">
-        <v>477.8354464519076</v>
+        <v>477.8354464519073</v>
       </c>
       <c r="P9" t="n">
-        <v>383.5050724947584</v>
+        <v>383.5050724947581</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.3629847463698</v>
+        <v>256.3629847463696</v>
       </c>
       <c r="R9" t="n">
-        <v>124.6933209204787</v>
+        <v>124.6933209204786</v>
       </c>
       <c r="S9" t="n">
-        <v>37.30405581366394</v>
+        <v>37.30405581366391</v>
       </c>
       <c r="T9" t="n">
-        <v>8.095024154133924</v>
+        <v>8.095024154133919</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321277065419031</v>
+        <v>0.132127706541903</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.683725746752557</v>
+        <v>1.683725746752555</v>
       </c>
       <c r="H10" t="n">
-        <v>14.96985254840001</v>
+        <v>14.9698525484</v>
       </c>
       <c r="I10" t="n">
-        <v>50.63422518415872</v>
+        <v>50.63422518415869</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0394102954058</v>
+        <v>119.0394102954057</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6183185772516</v>
+        <v>195.6183185772514</v>
       </c>
       <c r="L10" t="n">
-        <v>250.324098749012</v>
+        <v>250.3240987490118</v>
       </c>
       <c r="M10" t="n">
-        <v>263.9316641023121</v>
+        <v>263.9316641023119</v>
       </c>
       <c r="N10" t="n">
-        <v>257.6559590462346</v>
+        <v>257.6559590462344</v>
       </c>
       <c r="O10" t="n">
-        <v>237.9869810046251</v>
+        <v>237.9869810046249</v>
       </c>
       <c r="P10" t="n">
-        <v>203.6389757708728</v>
+        <v>203.6389757708726</v>
       </c>
       <c r="Q10" t="n">
-        <v>140.98907139398</v>
+        <v>140.9890713939799</v>
       </c>
       <c r="R10" t="n">
-        <v>75.70643221307402</v>
+        <v>75.70643221307398</v>
       </c>
       <c r="S10" t="n">
-        <v>29.34274778658773</v>
+        <v>29.34274778658771</v>
       </c>
       <c r="T10" t="n">
-        <v>7.19410091794274</v>
+        <v>7.194100917942735</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0918395861865032</v>
+        <v>0.09183958618650313</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,37 +31752,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31791,10 +31791,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31840,25 +31840,25 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>339.9772972286971</v>
+        <v>339.9772972286976</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O12" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q12" t="n">
         <v>375.599612848529</v>
@@ -31867,10 +31867,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31916,28 +31916,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31989,37 +31989,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32028,10 +32028,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32074,25 +32074,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565771</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,10 +32104,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32153,28 +32153,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32183,7 +32183,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,31 +32305,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,31 +32542,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32791,19 +32791,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>175.6052721551105</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33028,19 +33028,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33265,19 +33265,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>175.6052721551106</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33502,19 +33502,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067226</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33739,19 +33739,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
@@ -33976,19 +33976,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>446.012731199064</v>
       </c>
       <c r="N39" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34213,19 +34213,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>173.8200325543355</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
@@ -34450,19 +34450,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>446.012731199064</v>
       </c>
       <c r="N45" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.47028331217709</v>
+        <v>28.47028331217712</v>
       </c>
       <c r="K2" t="n">
-        <v>93.92060305664467</v>
+        <v>93.92060305664472</v>
       </c>
       <c r="L2" t="n">
-        <v>153.7913200468045</v>
+        <v>153.7913200468046</v>
       </c>
       <c r="M2" t="n">
-        <v>203.1118067186565</v>
+        <v>203.1118067186566</v>
       </c>
       <c r="N2" t="n">
-        <v>211.0587806020922</v>
+        <v>211.0587806020923</v>
       </c>
       <c r="O2" t="n">
-        <v>185.8268607441512</v>
+        <v>185.8268607441513</v>
       </c>
       <c r="P2" t="n">
-        <v>123.7494305716377</v>
+        <v>123.7494305716378</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.27132869117358</v>
+        <v>44.27132869117364</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,13 +34777,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>97.32166909127238</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>75.43840481763047</v>
+        <v>75.4384048176305</v>
       </c>
       <c r="L3" t="n">
-        <v>148.2266905659562</v>
+        <v>148.2266905659563</v>
       </c>
       <c r="M3" t="n">
         <v>192.5259485823473</v>
@@ -34798,7 +34798,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.61687799649638</v>
+        <v>125.9385470877686</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>106.3800667966405</v>
+        <v>106.3800667966406</v>
       </c>
       <c r="L4" t="n">
         <v>192.2171678043497</v>
@@ -34874,10 +34874,10 @@
         <v>181.0986910958077</v>
       </c>
       <c r="P4" t="n">
-        <v>131.2029511204531</v>
+        <v>131.2029511204528</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.560263827496826</v>
+        <v>6.56026382749684</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.47028331217709</v>
+        <v>28.47028331217712</v>
       </c>
       <c r="K5" t="n">
-        <v>93.92060305664467</v>
+        <v>93.92060305664472</v>
       </c>
       <c r="L5" t="n">
-        <v>153.7913200468045</v>
+        <v>153.7913200468046</v>
       </c>
       <c r="M5" t="n">
-        <v>203.1118067186565</v>
+        <v>203.1118067186566</v>
       </c>
       <c r="N5" t="n">
-        <v>211.0587806020922</v>
+        <v>211.0587806020923</v>
       </c>
       <c r="O5" t="n">
-        <v>185.8268607441512</v>
+        <v>185.8268607441513</v>
       </c>
       <c r="P5" t="n">
-        <v>123.7494305716377</v>
+        <v>123.7494305716378</v>
       </c>
       <c r="Q5" t="n">
-        <v>44.27132869117358</v>
+        <v>44.27132869117364</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35017,10 +35017,10 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>172.7600739089029</v>
+        <v>172.7600739089027</v>
       </c>
       <c r="L6" t="n">
-        <v>148.2266905659562</v>
+        <v>148.2266905659563</v>
       </c>
       <c r="M6" t="n">
         <v>192.5259485823473</v>
@@ -35035,7 +35035,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q6" t="n">
-        <v>28.61687799649638</v>
+        <v>28.61687799649641</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35114,7 +35114,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.560263827496826</v>
+        <v>6.56026382749684</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.5343130705666</v>
+        <v>137.5343130705663</v>
       </c>
       <c r="K8" t="n">
-        <v>257.3793117313377</v>
+        <v>257.3793117313374</v>
       </c>
       <c r="L8" t="n">
-        <v>356.5763021655048</v>
+        <v>356.5763021655044</v>
       </c>
       <c r="M8" t="n">
-        <v>428.7491718087203</v>
+        <v>428.7491718087198</v>
       </c>
       <c r="N8" t="n">
-        <v>440.3471941559157</v>
+        <v>440.3471941559152</v>
       </c>
       <c r="O8" t="n">
-        <v>402.3374078091016</v>
+        <v>402.3374078091011</v>
       </c>
       <c r="P8" t="n">
-        <v>308.5361733430317</v>
+        <v>308.5361733430313</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.0384768797628</v>
+        <v>183.0384768797626</v>
       </c>
       <c r="R8" t="n">
-        <v>20.20013907234258</v>
+        <v>20.20013907234241</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.90656844127557</v>
+        <v>62.90656844127545</v>
       </c>
       <c r="K9" t="n">
-        <v>450.9268494884359</v>
+        <v>450.9268494884357</v>
       </c>
       <c r="L9" t="n">
-        <v>297.5110943772532</v>
+        <v>297.5110943772529</v>
       </c>
       <c r="M9" t="n">
-        <v>366.7338065396976</v>
+        <v>366.7338065396972</v>
       </c>
       <c r="N9" t="n">
-        <v>390.9943459318873</v>
+        <v>390.994345931887</v>
       </c>
       <c r="O9" t="n">
-        <v>335.2392020074632</v>
+        <v>335.2392020074628</v>
       </c>
       <c r="P9" t="n">
-        <v>514.0054125899239</v>
+        <v>514.0054125899206</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.3812106603482</v>
+        <v>116.3812106603481</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.68023017873298</v>
+        <v>25.68023017873288</v>
       </c>
       <c r="K10" t="n">
-        <v>173.3488267513687</v>
+        <v>173.3488267513686</v>
       </c>
       <c r="L10" t="n">
-        <v>277.9141240093281</v>
+        <v>277.9141240093279</v>
       </c>
       <c r="M10" t="n">
-        <v>303.5155410641527</v>
+        <v>303.5155410641525</v>
       </c>
       <c r="N10" t="n">
-        <v>301.7881314254632</v>
+        <v>301.788131425463</v>
       </c>
       <c r="O10" t="n">
-        <v>262.5721089186648</v>
+        <v>262.5721089186646</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9175350357663</v>
+        <v>200.9175350357661</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.82702814228561</v>
+        <v>54.82702814228553</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35488,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>197.8432633066788</v>
+        <v>197.8432633066793</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q12" t="n">
         <v>235.6178387625075</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35576,19 +35576,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,31 +35643,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35722,25 +35722,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O15" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121327</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35813,19 +35813,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396396</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,16 +35968,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,16 +36205,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,19 +36439,19 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>37.76383318075146</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36679,16 +36679,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36913,19 +36913,19 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>37.76383318075158</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37153,16 +37153,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236316704</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37390,16 +37390,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295329</v>
       </c>
       <c r="K37" t="n">
         <v>264.3325884096349</v>
@@ -37475,16 +37475,16 @@
         <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O37" t="n">
         <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37627,16 +37627,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770457</v>
       </c>
       <c r="N39" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295329</v>
       </c>
       <c r="K40" t="n">
         <v>264.3325884096349</v>
@@ -37712,16 +37712,16 @@
         <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O40" t="n">
         <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,25 +37855,25 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>35.9785935799765</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38101,16 +38101,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770457</v>
       </c>
       <c r="N45" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
